--- a/bases/LIFs/LIFs.xlsx
+++ b/bases/LIFs/LIFs.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="345">
   <si>
     <t>numdivLIF</t>
   </si>
@@ -1054,15 +1054,34 @@
   </si>
   <si>
     <t>Derecho único sobre hidrocarburos</t>
+  </si>
+  <si>
+    <t>ILIF2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1085,15 +1104,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1423,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK164"/>
+  <dimension ref="A1:AML164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1443,11 +1466,11 @@
     <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.83203125" style="1"/>
+    <col min="13" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="1026" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,19 +1532,22 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1586,16 +1612,19 @@
         <v>665496305400</v>
       </c>
       <c r="V2" s="1">
+        <v>665496305400</v>
+      </c>
+      <c r="W2" s="1">
         <v>603233537466</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>561888966779</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>494090940720</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1660,16 +1689,19 @@
         <v>44053980780</v>
       </c>
       <c r="V3" s="1">
+        <v>44053980780</v>
+      </c>
+      <c r="W3" s="1">
         <v>38560882349</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>35890965473</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>24541918939</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1734,16 +1766,19 @@
         <v>810815756272</v>
       </c>
       <c r="V4" s="1">
+        <v>810815756272</v>
+      </c>
+      <c r="W4" s="1">
         <v>735311487320</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>614562268047</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>504214759947</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1799,11 +1834,14 @@
       <c r="U5" s="1">
         <v>-6283837772</v>
       </c>
-      <c r="V5"/>
+      <c r="V5" s="1">
+        <v>-6283837772</v>
+      </c>
       <c r="W5"/>
       <c r="X5"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1868,16 +1906,19 @@
         <v>48115695320</v>
       </c>
       <c r="V6" s="1">
+        <v>48115695320</v>
+      </c>
+      <c r="W6" s="1">
         <v>42271392866</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>38764199701</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>30867380394</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1918,8 +1959,9 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1984,16 +2026,19 @@
         <v>876936100000</v>
       </c>
       <c r="V8" s="1">
+        <v>876936100000</v>
+      </c>
+      <c r="W8" s="1">
         <v>794059700000</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>739755600000</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>703848500000</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2058,16 +2103,19 @@
         <v>239501000000</v>
       </c>
       <c r="V9" s="1">
+        <v>239501000000</v>
+      </c>
+      <c r="W9" s="1">
         <v>257466000000</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>198574200000</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>3418700000</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2132,16 +2180,19 @@
         <v>27383300000</v>
       </c>
       <c r="V10" s="1">
+        <v>27383300000</v>
+      </c>
+      <c r="W10" s="1">
         <v>26966300000</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>24948100000</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>23636700000</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2206,16 +2257,19 @@
         <v>16316100000</v>
       </c>
       <c r="V11" s="1">
+        <v>16316100000</v>
+      </c>
+      <c r="W11" s="1">
         <v>14696100000</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>13434700000</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>11383200000</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2280,16 +2334,19 @@
         <v>37210600000</v>
       </c>
       <c r="V12" s="1">
+        <v>37210600000</v>
+      </c>
+      <c r="W12" s="1">
         <v>33125200000</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>31881100000</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>29020200000</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2354,16 +2411,19 @@
         <v>44096900000</v>
       </c>
       <c r="V13" s="1">
+        <v>44096900000</v>
+      </c>
+      <c r="W13" s="1">
         <v>41985800000</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>37493200000</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>34426600000</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2428,16 +2488,19 @@
         <v>2978100000</v>
       </c>
       <c r="V14" s="1">
+        <v>2978100000</v>
+      </c>
+      <c r="W14" s="1">
         <v>2483700000</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>2262100000</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>2599900000</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2502,16 +2565,19 @@
         <v>6465400000</v>
       </c>
       <c r="V15" s="1">
+        <v>6465400000</v>
+      </c>
+      <c r="W15" s="1">
         <v>6700500000</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>7236800000</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>8065400000</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2576,16 +2642,19 @@
         <v>4300000</v>
       </c>
       <c r="V16" s="1">
+        <v>4300000</v>
+      </c>
+      <c r="W16" s="1">
         <v>7500000</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>11100000</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>23900000</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2650,16 +2719,19 @@
         <v>26797500000</v>
       </c>
       <c r="V17" s="1">
+        <v>26797500000</v>
+      </c>
+      <c r="W17" s="1">
         <v>24556600000</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>21062400000</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>18271100000</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2724,16 +2796,19 @@
         <v>19748000000</v>
       </c>
       <c r="V18" s="1">
+        <v>19748000000</v>
+      </c>
+      <c r="W18" s="1">
         <v>17858400000</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>17323600000</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>15348400000</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2798,16 +2873,19 @@
         <v>763500000</v>
       </c>
       <c r="V19" s="1">
+        <v>763500000</v>
+      </c>
+      <c r="W19" s="1">
         <v>639300000</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>576400000</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>638800000</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2872,16 +2950,19 @@
         <v>8762700000</v>
       </c>
       <c r="V20" s="1">
+        <v>8762700000</v>
+      </c>
+      <c r="W20" s="1">
         <v>7405000000</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>8277700000</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>9871800000</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2946,16 +3027,19 @@
         <v>10623400000</v>
       </c>
       <c r="V21" s="1">
+        <v>10623400000</v>
+      </c>
+      <c r="W21" s="1">
         <v>8710000000</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>7299100000</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>6638700000</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -3020,16 +3104,19 @@
         <v>47319700000</v>
       </c>
       <c r="V22" s="1">
+        <v>47319700000</v>
+      </c>
+      <c r="W22" s="1">
         <v>45842100000</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>36289100000</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>27875900000</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -3098,8 +3185,11 @@
       <c r="X23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -3140,8 +3230,9 @@
       <c r="V24"/>
       <c r="W24"/>
       <c r="X24"/>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24"/>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3182,8 +3273,9 @@
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -3248,16 +3340,19 @@
         <v>31718100000</v>
       </c>
       <c r="V26" s="1">
+        <v>31718100000</v>
+      </c>
+      <c r="W26" s="1">
         <v>26414700000</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>24911100000</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>22704700000</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -3314,16 +3409,19 @@
         <v>4726900000</v>
       </c>
       <c r="V27" s="1">
+        <v>4726900000</v>
+      </c>
+      <c r="W27" s="1">
         <v>4114700000</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>4067100000</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>2200000000</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -3388,8 +3486,11 @@
       <c r="X28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -3454,16 +3555,19 @@
         <v>-1817800000</v>
       </c>
       <c r="V29" s="1">
+        <v>-1817800000</v>
+      </c>
+      <c r="W29" s="1">
         <v>-3062000000</v>
       </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1">
         <v>-5083100000</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Y29" s="1">
         <v>-3464000000</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -3528,8 +3632,11 @@
       <c r="X30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3594,16 +3701,19 @@
         <v>309302200000</v>
       </c>
       <c r="V31" s="1">
+        <v>309302200000</v>
+      </c>
+      <c r="W31" s="1">
         <v>283241700000</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="1">
         <v>260281100000</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>243482800000</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3668,8 +3778,11 @@
       <c r="X32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3736,8 +3849,11 @@
       <c r="X33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -3802,8 +3918,11 @@
       <c r="X34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3862,8 +3981,11 @@
       <c r="X35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -3924,16 +4046,19 @@
         <v>36100000</v>
       </c>
       <c r="V36" s="1">
+        <v>36100000</v>
+      </c>
+      <c r="W36" s="1">
         <v>33600000</v>
       </c>
-      <c r="W36" s="1">
+      <c r="X36" s="1">
         <v>31700000</v>
       </c>
-      <c r="X36" s="1">
+      <c r="Y36" s="1">
         <v>29800000</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -4000,8 +4125,11 @@
       <c r="X37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -4062,16 +4190,19 @@
         <v>114200000</v>
       </c>
       <c r="V38" s="1">
+        <v>114200000</v>
+      </c>
+      <c r="W38" s="1">
         <v>100200000</v>
       </c>
-      <c r="W38" s="1">
+      <c r="X38" s="1">
         <v>96000000</v>
       </c>
-      <c r="X38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -4140,8 +4271,11 @@
       <c r="X39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -4202,16 +4336,19 @@
         <v>2395200000</v>
       </c>
       <c r="V40" s="1">
+        <v>2395200000</v>
+      </c>
+      <c r="W40" s="1">
         <v>2098400000</v>
       </c>
-      <c r="W40" s="1">
+      <c r="X40" s="1">
         <v>2098700000</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Y40" s="1">
         <v>2040800000</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -4272,16 +4409,19 @@
         <v>7250900000</v>
       </c>
       <c r="V41" s="1">
+        <v>7250900000</v>
+      </c>
+      <c r="W41" s="1">
         <v>6122000000</v>
       </c>
-      <c r="W41" s="1">
+      <c r="X41" s="1">
         <v>5336500000</v>
       </c>
-      <c r="X41" s="1">
+      <c r="Y41" s="1">
         <v>4808000000</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -4342,16 +4482,19 @@
         <v>19304700000</v>
       </c>
       <c r="V42" s="1">
+        <v>19304700000</v>
+      </c>
+      <c r="W42" s="1">
         <v>21371400000</v>
       </c>
-      <c r="W42" s="1">
+      <c r="X42" s="1">
         <v>19688000000</v>
       </c>
-      <c r="X42" s="1">
+      <c r="Y42" s="1">
         <v>20241500000</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -4412,16 +4555,19 @@
         <v>76700000</v>
       </c>
       <c r="V43" s="1">
+        <v>76700000</v>
+      </c>
+      <c r="W43" s="1">
         <v>65100000</v>
       </c>
-      <c r="W43" s="1">
+      <c r="X43" s="1">
         <v>70900000</v>
       </c>
-      <c r="X43" s="1">
+      <c r="Y43" s="1">
         <v>65800000</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -4490,8 +4636,11 @@
       <c r="X44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -4555,13 +4704,16 @@
         <v>0</v>
       </c>
       <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
         <v>300000</v>
       </c>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -4614,16 +4766,19 @@
         <v>10548500000</v>
       </c>
       <c r="V46" s="1">
+        <v>10548500000</v>
+      </c>
+      <c r="W46" s="1">
         <v>8808000000</v>
       </c>
-      <c r="W46" s="1">
+      <c r="X46" s="1">
         <v>8824300000</v>
       </c>
-      <c r="X46" s="1">
+      <c r="Y46" s="1">
         <v>6745100000</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -4684,16 +4839,19 @@
         <v>136500000</v>
       </c>
       <c r="V47" s="1">
+        <v>136500000</v>
+      </c>
+      <c r="W47" s="1">
         <v>111500000</v>
       </c>
-      <c r="W47" s="1">
+      <c r="X47" s="1">
         <v>101900000</v>
       </c>
-      <c r="X47" s="1">
+      <c r="Y47" s="1">
         <v>97100000</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -4754,16 +4912,19 @@
         <v>3426700000</v>
       </c>
       <c r="V48" s="1">
+        <v>3426700000</v>
+      </c>
+      <c r="W48" s="1">
         <v>3103700000</v>
       </c>
-      <c r="W48" s="1">
+      <c r="X48" s="1">
         <v>2875300000</v>
       </c>
-      <c r="X48" s="1">
+      <c r="Y48" s="1">
         <v>2475600000</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -4832,8 +4993,11 @@
       <c r="X49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -4902,8 +5066,11 @@
       <c r="X50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -4964,16 +5131,19 @@
         <v>383300000</v>
       </c>
       <c r="V51" s="1">
+        <v>383300000</v>
+      </c>
+      <c r="W51" s="1">
         <v>308600000</v>
       </c>
-      <c r="W51" s="1">
+      <c r="X51" s="1">
         <v>227600000</v>
       </c>
-      <c r="X51" s="1">
+      <c r="Y51" s="1">
         <v>198600000</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -5034,16 +5204,19 @@
         <v>13900000</v>
       </c>
       <c r="V52" s="1">
+        <v>13900000</v>
+      </c>
+      <c r="W52" s="1">
         <v>15000000</v>
       </c>
-      <c r="W52" s="1">
+      <c r="X52" s="1">
         <v>11500000</v>
       </c>
-      <c r="X52" s="1">
+      <c r="Y52" s="1">
         <v>11400000</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:25">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -5104,16 +5277,19 @@
         <v>200000</v>
       </c>
       <c r="V53" s="1">
+        <v>200000</v>
+      </c>
+      <c r="W53" s="1">
         <v>8000000</v>
       </c>
-      <c r="W53" s="1">
+      <c r="X53" s="1">
         <v>11100000</v>
       </c>
-      <c r="X53" s="1">
+      <c r="Y53" s="1">
         <v>252100000</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:25">
       <c r="A54" s="1">
         <v>4</v>
       </c>
@@ -5174,16 +5350,19 @@
         <v>35500000</v>
       </c>
       <c r="V54" s="1">
+        <v>35500000</v>
+      </c>
+      <c r="W54" s="1">
         <v>28800000</v>
       </c>
-      <c r="W54" s="1">
+      <c r="X54" s="1">
         <v>19000000</v>
       </c>
-      <c r="X54" s="1">
+      <c r="Y54" s="1">
         <v>20400000</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -5244,16 +5423,19 @@
         <v>48400000</v>
       </c>
       <c r="V55" s="1">
+        <v>48400000</v>
+      </c>
+      <c r="W55" s="1">
         <v>55300000</v>
       </c>
-      <c r="W55" s="1">
+      <c r="X55" s="1">
         <v>50900000</v>
       </c>
-      <c r="X55" s="1">
+      <c r="Y55" s="1">
         <v>40700000</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:25">
       <c r="A56" s="1">
         <v>4</v>
       </c>
@@ -5314,16 +5496,19 @@
         <v>912200000</v>
       </c>
       <c r="V56" s="1">
+        <v>912200000</v>
+      </c>
+      <c r="W56" s="1">
         <v>1233400000</v>
       </c>
-      <c r="W56" s="1">
+      <c r="X56" s="1">
         <v>1137300000</v>
       </c>
-      <c r="X56" s="1">
+      <c r="Y56" s="1">
         <v>1057700000</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:25">
       <c r="A57" s="1">
         <v>4</v>
       </c>
@@ -5384,8 +5569,11 @@
       <c r="X57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1">
         <v>4</v>
       </c>
@@ -5446,16 +5634,19 @@
         <v>88300000</v>
       </c>
       <c r="V58" s="1">
+        <v>88300000</v>
+      </c>
+      <c r="W58" s="1">
         <v>64200000</v>
       </c>
-      <c r="W58" s="1">
+      <c r="X58" s="1">
         <v>65000000</v>
       </c>
-      <c r="X58" s="1">
+      <c r="Y58" s="1">
         <v>62300000</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:25">
       <c r="A59" s="1">
         <v>4</v>
       </c>
@@ -5516,16 +5707,19 @@
         <v>1450100000</v>
       </c>
       <c r="V59" s="1">
+        <v>1450100000</v>
+      </c>
+      <c r="W59" s="1">
         <v>1142900000</v>
       </c>
-      <c r="W59" s="1">
+      <c r="X59" s="1">
         <v>1028900000</v>
       </c>
-      <c r="X59" s="1">
+      <c r="Y59" s="1">
         <v>957200000</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>4</v>
       </c>
@@ -5586,16 +5780,19 @@
         <v>31900000</v>
       </c>
       <c r="V60" s="1">
+        <v>31900000</v>
+      </c>
+      <c r="W60" s="1">
         <v>29700000</v>
       </c>
-      <c r="W60" s="1">
+      <c r="X60" s="1">
         <v>32000000</v>
       </c>
-      <c r="X60" s="1">
+      <c r="Y60" s="1">
         <v>30000000</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -5656,16 +5853,19 @@
         <v>5000000</v>
       </c>
       <c r="V61" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="W61" s="1">
         <v>3700000</v>
       </c>
-      <c r="W61" s="1">
+      <c r="X61" s="1">
         <v>2900000</v>
       </c>
-      <c r="X61" s="1">
+      <c r="Y61" s="1">
         <v>3000000</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -5726,16 +5926,19 @@
         <v>65500000</v>
       </c>
       <c r="V62" s="1">
+        <v>65500000</v>
+      </c>
+      <c r="W62" s="1">
         <v>60400000</v>
       </c>
-      <c r="W62" s="1">
+      <c r="X62" s="1">
         <v>65200000</v>
       </c>
-      <c r="X62" s="1">
+      <c r="Y62" s="1">
         <v>57800000</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -5802,10 +6005,13 @@
         <v>0</v>
       </c>
       <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
         <v>500000</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>4</v>
       </c>
@@ -5866,10 +6072,13 @@
         <v>200000</v>
       </c>
       <c r="X64" s="1">
+        <v>200000</v>
+      </c>
+      <c r="Y64" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -5922,16 +6131,19 @@
         <v>56500000</v>
       </c>
       <c r="V65" s="1">
+        <v>56500000</v>
+      </c>
+      <c r="W65" s="1">
         <v>26100000</v>
       </c>
-      <c r="W65" s="1">
+      <c r="X65" s="1">
         <v>18100000</v>
       </c>
-      <c r="X65" s="1">
+      <c r="Y65" s="1">
         <v>46200000</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:25">
       <c r="A66" s="1">
         <v>4</v>
       </c>
@@ -5992,8 +6204,11 @@
       <c r="X66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>4</v>
       </c>
@@ -6051,9 +6266,12 @@
       <c r="W67" s="1">
         <v>0</v>
       </c>
-      <c r="X67"/>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67"/>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>4</v>
       </c>
@@ -6101,11 +6319,14 @@
       <c r="U68" s="1">
         <v>0</v>
       </c>
-      <c r="V68"/>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
       <c r="W68"/>
       <c r="X68"/>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Y68"/>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>4</v>
       </c>
@@ -6162,16 +6383,19 @@
         <v>55100000</v>
       </c>
       <c r="V69" s="1">
+        <v>55100000</v>
+      </c>
+      <c r="W69" s="1">
         <v>700000</v>
       </c>
-      <c r="W69" s="1">
-        <v>0</v>
-      </c>
       <c r="X69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -6236,8 +6460,11 @@
       <c r="X70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -6302,8 +6529,11 @@
       <c r="X71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -6364,16 +6594,19 @@
         <v>7900000</v>
       </c>
       <c r="V72" s="1">
+        <v>7900000</v>
+      </c>
+      <c r="W72" s="1">
         <v>7400000</v>
       </c>
-      <c r="W72" s="1">
+      <c r="X72" s="1">
         <v>7000000</v>
       </c>
-      <c r="X72" s="1">
+      <c r="Y72" s="1">
         <v>6600000</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -6442,8 +6675,11 @@
       <c r="X73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>5</v>
       </c>
@@ -6512,8 +6748,11 @@
       <c r="X74" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>5</v>
       </c>
@@ -6574,16 +6813,19 @@
         <v>1564100000</v>
       </c>
       <c r="V75" s="1">
+        <v>1564100000</v>
+      </c>
+      <c r="W75" s="1">
         <v>1456200000</v>
       </c>
-      <c r="W75" s="1">
+      <c r="X75" s="1">
         <v>1373800000</v>
       </c>
-      <c r="X75" s="1">
+      <c r="Y75" s="1">
         <v>1289900000</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>5</v>
       </c>
@@ -6644,16 +6886,19 @@
         <v>104200000</v>
       </c>
       <c r="V76" s="1">
+        <v>104200000</v>
+      </c>
+      <c r="W76" s="1">
         <v>9700000</v>
       </c>
-      <c r="W76" s="1">
+      <c r="X76" s="1">
         <v>91500000</v>
       </c>
-      <c r="X76" s="1">
+      <c r="Y76" s="1">
         <v>85900000</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>5</v>
       </c>
@@ -6714,16 +6959,19 @@
         <v>4271300000</v>
       </c>
       <c r="V77" s="1">
+        <v>4271300000</v>
+      </c>
+      <c r="W77" s="1">
         <v>3944900000</v>
       </c>
-      <c r="W77" s="1">
+      <c r="X77" s="1">
         <v>3730700000</v>
       </c>
-      <c r="X77" s="1">
+      <c r="Y77" s="1">
         <v>4238600000</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -6792,8 +7040,11 @@
       <c r="X78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Y78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>5</v>
       </c>
@@ -6862,8 +7113,11 @@
       <c r="X79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Y79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -6924,16 +7178,19 @@
         <v>478700000</v>
       </c>
       <c r="V80" s="1">
+        <v>478700000</v>
+      </c>
+      <c r="W80" s="1">
         <v>477400000</v>
       </c>
-      <c r="W80" s="1">
+      <c r="X80" s="1">
         <v>447400000</v>
       </c>
-      <c r="X80" s="1">
+      <c r="Y80" s="1">
         <v>441500000</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:25">
       <c r="A81" s="1">
         <v>5</v>
       </c>
@@ -7002,8 +7259,11 @@
       <c r="X81" s="1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="Y81" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1">
         <v>5</v>
       </c>
@@ -7072,8 +7332,11 @@
       <c r="X82" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Y82" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -7138,8 +7401,11 @@
       <c r="X83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="Y83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1">
         <v>6</v>
       </c>
@@ -7200,16 +7466,19 @@
         <v>1965000000</v>
       </c>
       <c r="V84" s="1">
+        <v>1965000000</v>
+      </c>
+      <c r="W84" s="1">
         <v>1829500000</v>
       </c>
-      <c r="W84" s="1">
+      <c r="X84" s="1">
         <v>1726000000</v>
       </c>
-      <c r="X84" s="1">
+      <c r="Y84" s="1">
         <v>1620600000</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:25">
       <c r="A85" s="1">
         <v>6</v>
       </c>
@@ -7270,16 +7539,19 @@
         <v>2271200000</v>
       </c>
       <c r="V85" s="1">
+        <v>2271200000</v>
+      </c>
+      <c r="W85" s="1">
         <v>2114500000</v>
       </c>
-      <c r="W85" s="1">
+      <c r="X85" s="1">
         <v>1994800000</v>
       </c>
-      <c r="X85" s="1">
+      <c r="Y85" s="1">
         <v>1873000000</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:25">
       <c r="A86" s="1">
         <v>6</v>
       </c>
@@ -7348,8 +7620,11 @@
       <c r="X86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="Y86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1">
         <v>6</v>
       </c>
@@ -7418,8 +7693,11 @@
       <c r="X87" s="1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="Y87" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="1">
         <v>6</v>
       </c>
@@ -7480,16 +7758,19 @@
         <v>149300000</v>
       </c>
       <c r="V88" s="1">
+        <v>149300000</v>
+      </c>
+      <c r="W88" s="1">
         <v>139000000</v>
       </c>
-      <c r="W88" s="1">
+      <c r="X88" s="1">
         <v>131100000</v>
       </c>
-      <c r="X88" s="1">
+      <c r="Y88" s="1">
         <v>123100000</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:25">
       <c r="A89" s="1">
         <v>6</v>
       </c>
@@ -7550,16 +7831,19 @@
         <v>102400000</v>
       </c>
       <c r="V89" s="1">
+        <v>102400000</v>
+      </c>
+      <c r="W89" s="1">
         <v>373000000</v>
       </c>
-      <c r="W89" s="1">
+      <c r="X89" s="1">
         <v>345600000</v>
       </c>
-      <c r="X89" s="1">
+      <c r="Y89" s="1">
         <v>323600000</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:25">
       <c r="A90" s="1">
         <v>6</v>
       </c>
@@ -7628,8 +7912,11 @@
       <c r="X90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="Y90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1">
         <v>6</v>
       </c>
@@ -7698,8 +7985,11 @@
       <c r="X91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="Y91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -7768,8 +8058,11 @@
       <c r="X92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="Y92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="1">
         <v>6</v>
       </c>
@@ -7838,8 +8131,11 @@
       <c r="X93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="Y93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -7908,8 +8204,11 @@
       <c r="X94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="Y94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1">
         <v>6</v>
       </c>
@@ -7978,8 +8277,11 @@
       <c r="X95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="Y95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1">
         <v>6</v>
       </c>
@@ -8040,16 +8342,19 @@
         <v>824600000</v>
       </c>
       <c r="V96" s="1">
+        <v>824600000</v>
+      </c>
+      <c r="W96" s="1">
         <v>767700000</v>
       </c>
-      <c r="W96" s="1">
+      <c r="X96" s="1">
         <v>860000000</v>
       </c>
-      <c r="X96" s="1">
+      <c r="Y96" s="1">
         <v>775300000</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:25">
       <c r="A97" s="1">
         <v>6</v>
       </c>
@@ -8110,16 +8415,19 @@
         <v>1148300000</v>
       </c>
       <c r="V97" s="1">
+        <v>1148300000</v>
+      </c>
+      <c r="W97" s="1">
         <v>1026900000</v>
       </c>
-      <c r="W97" s="1">
+      <c r="X97" s="1">
         <v>981700000</v>
       </c>
-      <c r="X97" s="1">
+      <c r="Y97" s="1">
         <v>856600000</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>6</v>
       </c>
@@ -8188,8 +8496,11 @@
       <c r="X98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="Y98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>6</v>
       </c>
@@ -8250,16 +8561,19 @@
         <v>6800000</v>
       </c>
       <c r="V99" s="1">
+        <v>6800000</v>
+      </c>
+      <c r="W99" s="1">
         <v>6300000</v>
       </c>
-      <c r="W99" s="1">
+      <c r="X99" s="1">
         <v>5900000</v>
       </c>
-      <c r="X99" s="1">
+      <c r="Y99" s="1">
         <v>5500000</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>6</v>
       </c>
@@ -8328,8 +8642,11 @@
       <c r="X100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Y100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>6</v>
       </c>
@@ -8398,8 +8715,11 @@
       <c r="X101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="Y101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" s="1">
         <v>6</v>
       </c>
@@ -8468,8 +8788,11 @@
       <c r="X102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="Y102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -8538,8 +8861,11 @@
       <c r="X103" s="1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="Y103" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>6</v>
       </c>
@@ -8600,16 +8926,19 @@
         <v>127800000</v>
       </c>
       <c r="V104" s="1">
+        <v>127800000</v>
+      </c>
+      <c r="W104" s="1">
         <v>119000000</v>
       </c>
-      <c r="W104" s="1">
+      <c r="X104" s="1">
         <v>112300000</v>
       </c>
-      <c r="X104" s="1">
+      <c r="Y104" s="1">
         <v>105400000</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -8678,8 +9007,11 @@
       <c r="X105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="Y105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>6</v>
       </c>
@@ -8748,8 +9080,11 @@
       <c r="X106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="Y106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -8818,8 +9153,11 @@
       <c r="X107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="Y107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -8888,8 +9226,11 @@
       <c r="X108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="Y108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -8958,8 +9299,11 @@
       <c r="X109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Y109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" s="1">
         <v>6</v>
       </c>
@@ -9028,8 +9372,11 @@
       <c r="X110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="Y110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" s="1">
         <v>6</v>
       </c>
@@ -9098,8 +9445,11 @@
       <c r="X111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="Y111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" s="1">
         <v>6</v>
       </c>
@@ -9168,8 +9518,11 @@
       <c r="X112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="Y112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" s="1">
         <v>6</v>
       </c>
@@ -9230,16 +9583,19 @@
         <v>108168400000</v>
       </c>
       <c r="V113" s="1">
+        <v>108168400000</v>
+      </c>
+      <c r="W113" s="1">
         <v>56312400000</v>
       </c>
-      <c r="W113" s="1">
+      <c r="X113" s="1">
         <v>146551200000</v>
       </c>
-      <c r="X113" s="1">
+      <c r="Y113" s="1">
         <v>116315900000</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:25">
       <c r="A114" s="1">
         <v>6</v>
       </c>
@@ -9300,8 +9656,11 @@
       <c r="X114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="Y114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" s="1">
         <v>6</v>
       </c>
@@ -9362,8 +9721,11 @@
       <c r="X115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="Y115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" s="1">
         <v>6</v>
       </c>
@@ -9416,16 +9778,19 @@
         <v>3300000</v>
       </c>
       <c r="V116" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="W116" s="1">
         <v>3100000</v>
       </c>
-      <c r="W116" s="1">
-        <v>0</v>
-      </c>
       <c r="X116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="Y116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" s="1">
         <v>6</v>
       </c>
@@ -9486,16 +9851,19 @@
         <v>24700000</v>
       </c>
       <c r="V117" s="1">
+        <v>24700000</v>
+      </c>
+      <c r="W117" s="1">
         <v>23000000</v>
       </c>
-      <c r="W117" s="1">
+      <c r="X117" s="1">
         <v>21700000</v>
       </c>
-      <c r="X117" s="1">
+      <c r="Y117" s="1">
         <v>20400000</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:25">
       <c r="A118" s="1">
         <v>6</v>
       </c>
@@ -9556,16 +9924,19 @@
         <v>7000000</v>
       </c>
       <c r="V118" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="W118" s="1">
         <v>6500000</v>
       </c>
-      <c r="W118" s="1">
+      <c r="X118" s="1">
         <v>6100000</v>
       </c>
-      <c r="X118" s="1">
+      <c r="Y118" s="1">
         <v>5700000</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:25">
       <c r="A119" s="1">
         <v>6</v>
       </c>
@@ -9634,8 +10005,11 @@
       <c r="X119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="Y119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" s="1">
         <v>6</v>
       </c>
@@ -9704,8 +10078,11 @@
       <c r="X120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:24">
+      <c r="Y120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" s="1">
         <v>6</v>
       </c>
@@ -9774,8 +10151,11 @@
       <c r="X121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:24">
+      <c r="Y121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" s="1">
         <v>6</v>
       </c>
@@ -9836,8 +10216,11 @@
       <c r="X122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:24">
+      <c r="Y122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" s="1">
         <v>6</v>
       </c>
@@ -9898,8 +10281,11 @@
       <c r="X123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="Y123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" s="1">
         <v>7</v>
       </c>
@@ -9964,16 +10350,19 @@
         <v>27461500000</v>
       </c>
       <c r="V124" s="1">
+        <v>27461500000</v>
+      </c>
+      <c r="W124" s="1">
         <v>26011700000</v>
       </c>
-      <c r="W124" s="1">
+      <c r="X124" s="1">
         <v>28307000000</v>
       </c>
-      <c r="X124" s="1">
+      <c r="Y124" s="1">
         <v>30129600000</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:25">
       <c r="A125" s="1">
         <v>7</v>
       </c>
@@ -10038,16 +10427,19 @@
         <v>52482600000</v>
       </c>
       <c r="V125" s="1">
+        <v>52482600000</v>
+      </c>
+      <c r="W125" s="1">
         <v>48534700000</v>
       </c>
-      <c r="W125" s="1">
+      <c r="X125" s="1">
         <v>50671500000</v>
       </c>
-      <c r="X125" s="1">
+      <c r="Y125" s="1">
         <v>47934600000</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:25">
       <c r="A126" s="1">
         <v>7</v>
       </c>
@@ -10112,16 +10504,19 @@
         <v>413269100000</v>
       </c>
       <c r="V126" s="1">
+        <v>413269100000</v>
+      </c>
+      <c r="W126" s="1">
         <v>392973400000</v>
       </c>
-      <c r="W126" s="1">
+      <c r="X126" s="1">
         <v>390756700000</v>
       </c>
-      <c r="X126" s="1">
+      <c r="Y126" s="1">
         <v>438257300000</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:25">
       <c r="A127" s="1">
         <v>7</v>
       </c>
@@ -10186,16 +10581,19 @@
         <v>380785000000</v>
       </c>
       <c r="V127" s="1">
+        <v>380785000000</v>
+      </c>
+      <c r="W127" s="1">
         <v>338954000000</v>
       </c>
-      <c r="W127" s="1">
+      <c r="X127" s="1">
         <v>314540600000</v>
       </c>
-      <c r="X127" s="1">
+      <c r="Y127" s="1">
         <v>356816700000</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:25">
       <c r="A128" s="1">
         <v>7</v>
       </c>
@@ -10260,8 +10658,11 @@
       <c r="X128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:24">
+      <c r="Y128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" s="1">
         <v>7</v>
       </c>
@@ -10328,8 +10729,11 @@
       <c r="X129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:24">
+      <c r="Y129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -10369,11 +10773,12 @@
       <c r="U130"/>
       <c r="V130"/>
       <c r="W130"/>
-      <c r="X130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24">
+      <c r="X130"/>
+      <c r="Y130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -10413,11 +10818,12 @@
       <c r="U131"/>
       <c r="V131"/>
       <c r="W131"/>
-      <c r="X131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24">
+      <c r="X131"/>
+      <c r="Y131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" s="1">
         <v>8</v>
       </c>
@@ -10457,11 +10863,12 @@
       <c r="U132"/>
       <c r="V132"/>
       <c r="W132"/>
-      <c r="X132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
+      <c r="X132"/>
+      <c r="Y132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" s="1">
         <v>9</v>
       </c>
@@ -10518,16 +10925,19 @@
         <v>422305900000</v>
       </c>
       <c r="V133" s="1">
+        <v>422305900000</v>
+      </c>
+      <c r="W133" s="1">
         <v>376974000000</v>
       </c>
-      <c r="W133" s="1">
+      <c r="X133" s="1">
         <v>471539800000</v>
       </c>
-      <c r="X133" s="1">
+      <c r="Y133" s="1">
         <v>749466800000</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:25">
       <c r="A134" s="1">
         <v>9</v>
       </c>
@@ -10586,8 +10996,11 @@
       <c r="X134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:24">
+      <c r="Y134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" s="1">
         <v>9</v>
       </c>
@@ -10646,8 +11059,11 @@
       <c r="X135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:24">
+      <c r="Y135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" s="1">
         <v>9</v>
       </c>
@@ -10706,8 +11122,11 @@
       <c r="X136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:24">
+      <c r="Y136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" s="1">
         <v>9</v>
       </c>
@@ -10766,8 +11185,11 @@
       <c r="X137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:24">
+      <c r="Y137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" s="1">
         <v>9</v>
       </c>
@@ -10826,8 +11248,11 @@
       <c r="X138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:24">
+      <c r="Y138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" s="1">
         <v>9</v>
       </c>
@@ -10886,8 +11311,11 @@
       <c r="X139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:24">
+      <c r="Y139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" s="1">
         <v>10</v>
       </c>
@@ -10944,16 +11372,19 @@
         <v>460460900000</v>
       </c>
       <c r="V140" s="1">
+        <v>460460900000</v>
+      </c>
+      <c r="W140" s="1">
         <v>487247000000</v>
       </c>
-      <c r="W140" s="1">
+      <c r="X140" s="1">
         <v>520344400000</v>
       </c>
-      <c r="X140" s="1">
+      <c r="Y140" s="1">
         <v>571916300000</v>
       </c>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:25">
       <c r="A141" s="1">
         <v>10</v>
       </c>
@@ -11008,16 +11439,19 @@
         <v>34691100000</v>
       </c>
       <c r="V141" s="1">
+        <v>34691100000</v>
+      </c>
+      <c r="W141" s="1">
         <v>33106200000</v>
       </c>
-      <c r="W141" s="1">
+      <c r="X141" s="1">
         <v>32048600000</v>
       </c>
-      <c r="X141" s="1">
+      <c r="Y141" s="1">
         <v>31085000000</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:25">
       <c r="A142" s="1">
         <v>10</v>
       </c>
@@ -11080,8 +11514,11 @@
       <c r="X142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:24">
+      <c r="Y142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" s="1">
         <v>10</v>
       </c>
@@ -11146,8 +11583,11 @@
       <c r="X143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:24">
+      <c r="Y143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" s="1">
         <v>10</v>
       </c>
@@ -11202,16 +11642,19 @@
         <v>-65263400000</v>
       </c>
       <c r="V144" s="1">
+        <v>-65263400000</v>
+      </c>
+      <c r="W144" s="1">
         <v>-60079200000</v>
       </c>
-      <c r="W144" s="1">
+      <c r="X144" s="1">
         <v>-68274300000</v>
       </c>
-      <c r="X144" s="1">
+      <c r="Y144" s="1">
         <v>-58857500000</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:25">
       <c r="A145" s="1">
         <v>10</v>
       </c>
@@ -11258,16 +11701,19 @@
         <v>71486900000</v>
       </c>
       <c r="V145" s="1">
+        <v>71486900000</v>
+      </c>
+      <c r="W145" s="1">
         <v>67704700000</v>
       </c>
-      <c r="W145" s="1">
+      <c r="X145" s="1">
         <v>125122000000</v>
       </c>
-      <c r="X145" s="1">
+      <c r="Y145" s="1">
         <v>128451200000</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:25">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -11309,7 +11755,7 @@
         <v>19304100000</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:25">
       <c r="A147" s="1">
         <v>4</v>
       </c>
@@ -11353,7 +11799,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:25">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -11395,7 +11841,7 @@
         <v>60605300000</v>
       </c>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:25">
       <c r="A149" s="1">
         <v>4</v>
       </c>
@@ -11439,7 +11885,7 @@
         <v>537676700000</v>
       </c>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:25">
       <c r="A150" s="1">
         <v>1</v>
       </c>
@@ -11477,7 +11923,7 @@
         <v>17182800000</v>
       </c>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:25">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -11521,7 +11967,7 @@
         <v>2425900000</v>
       </c>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:25">
       <c r="A152" s="1">
         <v>4</v>
       </c>
@@ -11565,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:25">
       <c r="A153" s="1">
         <v>4</v>
       </c>
@@ -11609,7 +12055,7 @@
         <v>3425100000</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:25">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -11653,7 +12099,7 @@
         <v>-92900000</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:25">
       <c r="A155" s="1">
         <v>4</v>
       </c>
@@ -11691,7 +12137,7 @@
         <v>2672700000</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:25">
       <c r="A156" s="1">
         <v>4</v>
       </c>
@@ -11735,7 +12181,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:25">
       <c r="A157" s="1">
         <v>4</v>
       </c>
@@ -11779,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:25">
       <c r="A158" s="1">
         <v>4</v>
       </c>
@@ -11823,7 +12269,7 @@
         <v>4191900000</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:25">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -11867,7 +12313,7 @@
         <v>1501300000</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:25">
       <c r="A160" s="1">
         <v>4</v>
       </c>
@@ -12029,7 +12475,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/bases/LIFs/LIFs.xlsx
+++ b/bases/LIFs/LIFs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/CIEP Dropbox/Ricardo Cantú/SimuladorCIEP/5.3/SimuladorCIEP/bases/LIFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A9AC6-6EC2-3249-866C-8509A5FEC12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2891B13-DABC-CD44-AC93-3AFE8BA1B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="4680" windowWidth="35420" windowHeight="21760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16100" yWindow="4680" windowWidth="31040" windowHeight="21720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="318">
   <si>
     <t>numdivLIF</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Contribuciones de mejoras</t>
   </si>
   <si>
-    <t>Otros no tributarios no petroleros</t>
-  </si>
-  <si>
     <t>Contribucion de mejoras por obras p{c u'}blicas de infraestructura hidra{c u'}lica</t>
   </si>
   <si>
@@ -973,6 +970,15 @@
   </si>
   <si>
     <t>OTROSK</t>
+  </si>
+  <si>
+    <t>Otros ingresos</t>
+  </si>
+  <si>
+    <t>IMSS, ISSSTE</t>
+  </si>
+  <si>
+    <t>No tributarios (no energía)</t>
   </si>
 </sst>
 </file>
@@ -1029,13 +1035,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1406,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -1510,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>39</v>
@@ -1614,7 +1619,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>42</v>
@@ -1718,7 +1723,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
@@ -1816,13 +1821,13 @@
         <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>49</v>
@@ -1981,7 +1986,7 @@
         <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>55</v>
@@ -2085,7 +2090,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>57</v>
@@ -2183,13 +2188,13 @@
         <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>60</v>
@@ -2287,13 +2292,13 @@
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>62</v>
@@ -2391,13 +2396,13 @@
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>64</v>
@@ -2495,13 +2500,13 @@
         <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>66</v>
@@ -2599,13 +2604,13 @@
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>68</v>
@@ -2703,13 +2708,13 @@
         <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>70</v>
@@ -2804,13 +2809,13 @@
         <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>72</v>
@@ -2905,13 +2910,13 @@
         <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>74</v>
@@ -3006,13 +3011,13 @@
         <v>59</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>76</v>
@@ -3107,13 +3112,13 @@
         <v>59</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>78</v>
@@ -3208,7 +3213,7 @@
         <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>51</v>
@@ -3312,13 +3317,13 @@
         <v>83</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>84</v>
@@ -3416,7 +3421,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>51</v>
@@ -3514,7 +3519,7 @@
         <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>38</v>
@@ -3547,7 +3552,7 @@
         <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>51</v>
@@ -3580,13 +3585,13 @@
         <v>48</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>90</v>
@@ -3684,13 +3689,13 @@
         <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>92</v>
@@ -3773,13 +3778,13 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>94</v>
@@ -3871,13 +3876,13 @@
         <v>48</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>95</v>
@@ -3972,13 +3977,13 @@
         <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>103</v>
@@ -4068,13 +4073,13 @@
         <v>101</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>104</v>
@@ -4172,13 +4177,13 @@
         <v>101</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>106</v>
@@ -4273,13 +4278,13 @@
         <v>101</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>107</v>
@@ -4374,13 +4379,13 @@
         <v>101</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>108</v>
@@ -4475,13 +4480,13 @@
         <v>101</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>109</v>
@@ -4555,7 +4560,7 @@
         <v>111</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>35</v>
@@ -4564,19 +4569,19 @@
         <v>112</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -4659,7 +4664,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>35</v>
@@ -4668,16 +4673,16 @@
         <v>112</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L35" s="1">
         <v>0</v>
@@ -4754,34 +4759,34 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -4858,34 +4863,34 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -4962,34 +4967,34 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -5066,34 +5071,34 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -5170,34 +5175,34 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -5274,34 +5279,34 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
@@ -5378,34 +5383,34 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -5482,34 +5487,34 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -5583,34 +5588,34 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L44" s="1">
         <v>0</v>
@@ -5672,34 +5677,34 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -5728,34 +5733,34 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -5776,34 +5781,34 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
@@ -5824,34 +5829,34 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L48" s="1">
         <v>0</v>
@@ -5872,34 +5877,34 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L49" s="1">
         <v>0</v>
@@ -5976,34 +5981,34 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L50" s="1">
         <v>0</v>
@@ -6080,34 +6085,34 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
@@ -6184,34 +6189,34 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
@@ -6288,34 +6293,34 @@
         <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L53" s="1">
         <v>0</v>
@@ -6392,34 +6397,34 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
@@ -6496,34 +6501,34 @@
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
@@ -6600,34 +6605,34 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
@@ -6704,34 +6709,34 @@
         <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L57" s="1">
         <v>0</v>
@@ -6808,34 +6813,34 @@
         <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L58" s="1">
         <v>0</v>
@@ -6912,34 +6917,34 @@
         <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
@@ -7001,34 +7006,34 @@
         <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L60" s="1">
         <v>0</v>
@@ -7105,34 +7110,34 @@
         <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
@@ -7209,34 +7214,34 @@
         <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
@@ -7313,34 +7318,34 @@
         <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
@@ -7417,34 +7422,34 @@
         <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L64" s="1">
         <v>0</v>
@@ -7521,34 +7526,34 @@
         <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
@@ -7625,34 +7630,34 @@
         <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L66" s="1">
         <v>0</v>
@@ -7708,34 +7713,34 @@
         <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L67" s="1">
         <v>0</v>
@@ -7797,34 +7802,34 @@
         <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L68" s="1">
         <v>0</v>
@@ -7883,34 +7888,34 @@
         <v>4</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
@@ -7969,34 +7974,34 @@
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
@@ -8043,34 +8048,34 @@
         <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
@@ -8108,34 +8113,34 @@
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M72" s="1">
         <v>70300000</v>
@@ -8164,34 +8169,34 @@
         <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L73" s="1">
         <v>0</v>
@@ -8212,34 +8217,34 @@
         <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L74" s="1">
         <v>0</v>
@@ -8307,34 +8312,34 @@
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
@@ -8402,34 +8407,34 @@
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
@@ -8497,34 +8502,34 @@
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="L77" s="1">
         <v>0</v>
@@ -8601,34 +8606,34 @@
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L78" s="1">
         <v>0</v>
@@ -8705,34 +8710,34 @@
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
@@ -8809,34 +8814,34 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L80" s="1">
         <v>0</v>
@@ -8913,34 +8918,34 @@
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -9017,34 +9022,34 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -9121,34 +9126,34 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
@@ -9225,34 +9230,34 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
@@ -9329,34 +9334,34 @@
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -9424,34 +9429,34 @@
         <v>5</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L86" s="1">
         <v>0</v>
@@ -9528,34 +9533,34 @@
         <v>5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L87" s="1">
         <v>0</v>
@@ -9632,34 +9637,34 @@
         <v>5</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L88" s="1">
         <v>0</v>
@@ -9727,34 +9732,34 @@
         <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="L89" s="1">
         <v>0</v>
@@ -9831,34 +9836,34 @@
         <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L90" s="1">
         <v>0</v>
@@ -9935,34 +9940,34 @@
         <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L91" s="1">
         <v>0</v>
@@ -10039,34 +10044,34 @@
         <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L92" s="1">
         <v>0</v>
@@ -10143,34 +10148,34 @@
         <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L93" s="1">
         <v>0</v>
@@ -10247,34 +10252,34 @@
         <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L94" s="1">
         <v>0</v>
@@ -10351,34 +10356,34 @@
         <v>6</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L95" s="1">
         <v>0</v>
@@ -10455,34 +10460,34 @@
         <v>6</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L96" s="1">
         <v>0</v>
@@ -10559,34 +10564,34 @@
         <v>6</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L97" s="1">
         <v>0</v>
@@ -10663,34 +10668,34 @@
         <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L98" s="1">
         <v>0</v>
@@ -10767,34 +10772,34 @@
         <v>6</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L99" s="1">
         <v>0</v>
@@ -10871,34 +10876,34 @@
         <v>6</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L100" s="1">
         <v>0</v>
@@ -10975,34 +10980,34 @@
         <v>6</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L101" s="1">
         <v>0</v>
@@ -11079,34 +11084,34 @@
         <v>6</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L102" s="1">
         <v>0</v>
@@ -11183,34 +11188,34 @@
         <v>6</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L103" s="1">
         <v>0</v>
@@ -11287,34 +11292,34 @@
         <v>6</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L104" s="1">
         <v>0</v>
@@ -11391,34 +11396,34 @@
         <v>6</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L105" s="1">
         <v>0</v>
@@ -11495,34 +11500,34 @@
         <v>6</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L106" s="1">
         <v>0</v>
@@ -11599,34 +11604,34 @@
         <v>6</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L107" s="1">
         <v>0</v>
@@ -11703,34 +11708,34 @@
         <v>6</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L108" s="1">
         <v>0</v>
@@ -11807,34 +11812,34 @@
         <v>6</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L109" s="1">
         <v>0</v>
@@ -11911,34 +11916,34 @@
         <v>6</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L110" s="1">
         <v>0</v>
@@ -12015,34 +12020,34 @@
         <v>6</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L111" s="1">
         <v>0</v>
@@ -12119,34 +12124,34 @@
         <v>6</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L112" s="1">
         <v>0</v>
@@ -12223,34 +12228,34 @@
         <v>6</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L113" s="1">
         <v>0</v>
@@ -12327,34 +12332,34 @@
         <v>6</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L114" s="1">
         <v>0</v>
@@ -12431,34 +12436,34 @@
         <v>6</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L115" s="1">
         <v>0</v>
@@ -12535,34 +12540,34 @@
         <v>6</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L116" s="1">
         <v>0</v>
@@ -12639,34 +12644,34 @@
         <v>6</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L117" s="1">
         <v>0</v>
@@ -12743,34 +12748,34 @@
         <v>6</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L118" s="1">
         <v>0</v>
@@ -12847,34 +12852,34 @@
         <v>6</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L119" s="1">
         <v>0</v>
@@ -12936,34 +12941,34 @@
         <v>6</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L120" s="1">
         <v>0</v>
@@ -13025,34 +13030,34 @@
         <v>6</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>208</v>
+        <v>314</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L121" s="1">
         <v>0</v>
@@ -13114,34 +13119,34 @@
         <v>6</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
@@ -13218,34 +13223,34 @@
         <v>6</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L123" s="1">
         <v>0</v>
@@ -13322,34 +13327,34 @@
         <v>6</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L124" s="1">
         <v>0</v>
@@ -13426,34 +13431,34 @@
         <v>6</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
@@ -13530,34 +13535,34 @@
         <v>6</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L126" s="1">
         <v>0</v>
@@ -13634,34 +13639,34 @@
         <v>6</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L127" s="1">
         <v>0</v>
@@ -13723,34 +13728,34 @@
         <v>6</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L128" s="1">
         <v>0</v>
@@ -13812,7 +13817,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>98</v>
@@ -13824,22 +13829,22 @@
         <v>100</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="K129" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="L129" s="1">
         <v>0</v>
@@ -13916,7 +13921,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>98</v>
@@ -13928,22 +13933,22 @@
         <v>100</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I130" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="L130" s="1">
         <v>0</v>
@@ -14020,34 +14025,34 @@
         <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K131" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="L131" s="1">
         <v>0</v>
@@ -14124,34 +14129,34 @@
         <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J132" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="K132" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="L132" s="1">
         <v>0</v>
@@ -14228,7 +14233,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>98</v>
@@ -14240,19 +14245,19 @@
         <v>100</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
@@ -14303,7 +14308,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>98</v>
@@ -14315,22 +14320,22 @@
         <v>100</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J134" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K134" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="L134" s="1">
         <v>0</v>
@@ -14378,31 +14383,31 @@
         <v>8</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L135" s="1">
         <v>0</v>
@@ -14417,31 +14422,31 @@
         <v>8</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L136" s="1">
         <v>0</v>
@@ -14456,31 +14461,31 @@
         <v>8</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L137" s="1">
         <v>0</v>
@@ -14495,31 +14500,31 @@
         <v>8</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L138" s="1">
         <v>0</v>
@@ -14534,31 +14539,31 @@
         <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L139" s="1">
         <v>0</v>
@@ -14573,34 +14578,34 @@
         <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H140" s="1" t="s">
+      <c r="I140" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I140" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J140" s="1" t="s">
+      <c r="K140" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="L140" s="1">
         <v>0.80289999999999995</v>
@@ -14662,31 +14667,31 @@
         <v>9</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I141" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L141" s="1">
         <v>0</v>
@@ -14748,31 +14753,31 @@
         <v>9</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L142" s="1">
         <v>0</v>
@@ -14817,31 +14822,31 @@
         <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L143" s="1">
         <v>0</v>
@@ -14894,31 +14899,31 @@
         <v>9</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L144" s="1">
         <v>0</v>
@@ -14960,31 +14965,31 @@
         <v>9</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L145" s="1">
         <v>0</v>
@@ -15029,31 +15034,31 @@
         <v>9</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L146" s="1">
         <v>0</v>
@@ -15095,31 +15100,31 @@
         <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J147" s="1" t="s">
+      <c r="K147" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="L147" s="1">
         <v>0</v>
@@ -15196,28 +15201,28 @@
         <v>10</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D148" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="L148" s="1">
         <v>0</v>
@@ -15294,28 +15299,28 @@
         <v>10</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G149" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L149" s="1">
         <v>0</v>
@@ -15392,31 +15397,31 @@
         <v>10</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J150" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J150" s="1" t="s">
+      <c r="K150" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="L150" s="1">
         <v>0</v>
@@ -15493,31 +15498,31 @@
         <v>10</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J151" s="1" t="s">
+      <c r="K151" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="L151" s="1">
         <v>0</v>
@@ -15594,31 +15599,31 @@
         <v>10</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D152" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J152" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K152" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="L152" s="1">
         <v>0</v>
@@ -15695,16 +15700,16 @@
         <v>48</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J153" s="5" t="s">
+      <c r="J153" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K153" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="L153" s="1">
         <v>1</v>
@@ -15731,34 +15736,34 @@
         <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L154" s="1">
         <v>0</v>
@@ -15803,16 +15808,16 @@
         <v>48</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J155" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K155" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="L155" s="1">
         <v>1</v>
@@ -15839,34 +15844,34 @@
         <v>4</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I156" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J156" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K156" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="L156" s="1">
         <v>1</v>
@@ -15911,19 +15916,19 @@
         <v>48</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J157" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K157" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="L157" s="1">
         <v>0</v>
@@ -15944,34 +15949,34 @@
         <v>4</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I158" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J158" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K158" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="L158" s="1">
         <v>1</v>
@@ -16001,34 +16006,34 @@
         <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H159" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I159" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J159" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K159" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="L159" s="1">
         <v>0</v>
@@ -16055,34 +16060,34 @@
         <v>4</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H160" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I160" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J160" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K160" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="L160" s="1">
         <v>1</v>
@@ -16112,34 +16117,34 @@
         <v>4</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H161" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I161" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J161" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K161" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="L161" s="1">
         <v>0</v>
@@ -16169,34 +16174,34 @@
         <v>4</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I162" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J162" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K162" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="L162" s="1">
         <v>1</v>
@@ -16217,34 +16222,34 @@
         <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I163" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J163" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K163" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="L163" s="1">
         <v>0</v>
@@ -16274,34 +16279,34 @@
         <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H164" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I164" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J164" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K164" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="L164" s="1">
         <v>1</v>
@@ -16331,34 +16336,34 @@
         <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I165" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J165" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K165" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="L165" s="1">
         <v>0</v>
@@ -16403,19 +16408,19 @@
         <v>48</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J166" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K166" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="L166" s="1">
         <v>1</v>
@@ -16445,34 +16450,34 @@
         <v>4</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I167" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J167" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K167" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="K167" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="L167" s="1">
         <v>0</v>
@@ -16517,16 +16522,16 @@
         <v>48</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L168" s="1">
         <v>1</v>
@@ -16553,16 +16558,16 @@
         <v>48</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L169" s="1">
         <v>1</v>
@@ -16586,19 +16591,19 @@
         <v>35</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J170" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K170" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="L170" s="1">
         <v>1</v>
@@ -16622,19 +16627,19 @@
         <v>35</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J171" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K171" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="L171" s="1">
         <v>1</v>
@@ -16646,34 +16651,34 @@
         <v>4</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F172" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="I172" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J172" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K172" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="K172" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="L172" s="1">
         <v>0</v>

--- a/bases/LIFs/LIFs.xlsx
+++ b/bases/LIFs/LIFs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/CIEP Dropbox/Ricardo Cantú/SimuladorCIEP/5.3/SimuladorCIEP/bases/LIFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2891B13-DABC-CD44-AC93-3AFE8BA1B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC6A15-EEF8-A64C-B19D-DD6B06C108C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16100" yWindow="4680" windowWidth="31040" windowHeight="21720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="320">
   <si>
     <t>numdivLIF</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>No tributarios (no energía)</t>
+  </si>
+  <si>
+    <t>DEUDA</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1832,6 +1838,9 @@
       <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
@@ -3426,6 +3435,9 @@
       <c r="H21" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>86</v>
       </c>
@@ -3524,8 +3536,14 @@
       <c r="H22" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -3557,8 +3575,14 @@
       <c r="H23" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -3789,6 +3813,9 @@
       <c r="J26" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="K26" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L26" s="1">
         <v>0</v>
       </c>
@@ -3988,6 +4015,9 @@
       <c r="J28" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L28" s="1">
         <v>0</v>
       </c>
@@ -4188,6 +4218,9 @@
       <c r="J30" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="K30" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
@@ -4289,6 +4322,9 @@
       <c r="J31" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="K31" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L31" s="1">
         <v>0</v>
       </c>
@@ -4390,6 +4426,9 @@
       <c r="J32" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L32" s="1">
         <v>0</v>
       </c>
@@ -4491,6 +4530,9 @@
       <c r="J33" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L33" s="1">
         <v>0</v>
       </c>
@@ -4684,6 +4726,9 @@
       <c r="J35" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="K35" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L35" s="1">
         <v>0</v>
       </c>
@@ -14259,6 +14304,9 @@
       <c r="J133" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="K133" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L133" s="1">
         <v>0</v>
       </c>
@@ -14409,6 +14457,9 @@
       <c r="J135" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="K135" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L135" s="1">
         <v>0</v>
       </c>
@@ -14448,6 +14499,9 @@
       <c r="J136" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="K136" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L136" s="1">
         <v>0</v>
       </c>
@@ -14487,6 +14541,9 @@
       <c r="J137" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="K137" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L137" s="1">
         <v>0</v>
       </c>
@@ -14526,6 +14583,9 @@
       <c r="J138" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="K138" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L138" s="1">
         <v>0</v>
       </c>
@@ -14565,6 +14625,9 @@
       <c r="J139" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="K139" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L139" s="1">
         <v>0</v>
       </c>
@@ -14779,6 +14842,9 @@
       <c r="J142" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="K142" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L142" s="1">
         <v>0</v>
       </c>
@@ -14848,6 +14914,9 @@
       <c r="J143" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="K143" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L143" s="1">
         <v>0</v>
       </c>
@@ -14925,6 +14994,9 @@
       <c r="J144" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="K144" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L144" s="1">
         <v>0</v>
       </c>
@@ -14991,6 +15063,9 @@
       <c r="J145" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="K145" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L145" s="1">
         <v>0</v>
       </c>
@@ -15060,6 +15135,9 @@
       <c r="J146" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="K146" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L146" s="1">
         <v>0</v>
       </c>
@@ -15120,6 +15198,9 @@
       <c r="H147" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="I147" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="J147" s="1" t="s">
         <v>253</v>
       </c>
@@ -15221,8 +15302,14 @@
       <c r="H148" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="I148" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="J148" s="1" t="s">
         <v>256</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="L148" s="1">
         <v>0</v>
@@ -15319,8 +15406,14 @@
       <c r="H149" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="I149" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="J149" s="1" t="s">
         <v>257</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="L149" s="1">
         <v>0</v>
@@ -15417,6 +15510,9 @@
       <c r="H150" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="I150" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="J150" s="1" t="s">
         <v>259</v>
       </c>
@@ -15518,6 +15614,9 @@
       <c r="H151" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="I151" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="J151" s="1" t="s">
         <v>262</v>
       </c>
@@ -15619,6 +15718,9 @@
       <c r="H152" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="I152" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="J152" s="1" t="s">
         <v>264</v>
       </c>
@@ -15704,6 +15806,9 @@
       </c>
       <c r="H153" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>266</v>
@@ -15813,6 +15918,9 @@
       <c r="H155" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="I155" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="J155" s="1" t="s">
         <v>269</v>
       </c>
@@ -16533,6 +16641,9 @@
       <c r="J168" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="K168" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L168" s="1">
         <v>1</v>
       </c>
@@ -16569,6 +16680,9 @@
       <c r="J169" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="K169" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="L169" s="1">
         <v>1</v>
       </c>
@@ -16599,6 +16713,9 @@
       <c r="H170" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="I170" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="J170" s="1" t="s">
         <v>298</v>
       </c>
@@ -16634,6 +16751,9 @@
       </c>
       <c r="H171" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>300</v>

--- a/bases/LIFs/LIFs.xlsx
+++ b/bases/LIFs/LIFs.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/CIEP Dropbox/Ricardo Cantú/SimuladorCIEP/5.3/SimuladorCIEP/bases/LIFs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\LIFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC6A15-EEF8-A64C-B19D-DD6B06C108C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA19B389-6BD4-4943-A59F-5DEBC966D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16100" yWindow="4680" windowWidth="31040" windowHeight="21720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -1041,16 +1049,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1067,7 +1081,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1365,33 +1379,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="H106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="30.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="23.42578125" style="1" customWidth="1"/>
     <col min="8" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.1640625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="18" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="2" customWidth="1"/>
-    <col min="17" max="22" width="14.33203125" style="1" customWidth="1"/>
-    <col min="23" max="26" width="13.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="2" customWidth="1"/>
+    <col min="17" max="22" width="14.28515625" style="1" customWidth="1"/>
+    <col min="23" max="26" width="13.28515625" style="1" customWidth="1"/>
     <col min="27" max="27" width="18" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14.1640625" style="2" customWidth="1"/>
-    <col min="29" max="34" width="14.33203125" style="1" customWidth="1"/>
-    <col min="35" max="1025" width="8.83203125" style="1"/>
+    <col min="28" max="28" width="14.140625" style="2" customWidth="1"/>
+    <col min="29" max="34" width="14.28515625" style="1" customWidth="1"/>
+    <col min="35" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1433,7 @@
       <c r="I1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1428,7 +1442,7 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1495,7 +1509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1523,7 +1537,7 @@
       <c r="I2" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1532,8 +1546,8 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
-        <v>957953997000</v>
+      <c r="M2" s="1">
+        <v>1160651784600</v>
       </c>
       <c r="N2" s="3">
         <v>957953997000</v>
@@ -1599,7 +1613,7 @@
         <v>494090900812.83698</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1627,7 +1641,7 @@
       <c r="I3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1636,8 +1650,8 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <v>62204805000</v>
+      <c r="M3" s="1">
+        <v>75366999000</v>
       </c>
       <c r="N3" s="3">
         <v>62204805000</v>
@@ -1703,7 +1717,7 @@
         <v>24740473263.899899</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1731,7 +1745,7 @@
       <c r="I4" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1740,8 +1754,8 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="3">
-        <v>1053334698000</v>
+      <c r="M4" s="1">
+        <v>1276214516399.9998</v>
       </c>
       <c r="N4" s="3">
         <v>1053334698000</v>
@@ -1807,7 +1821,7 @@
         <v>534883625923.26202</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1835,7 +1849,7 @@
       <c r="I5" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="6" t="s">
         <v>49</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1844,7 +1858,6 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1865,7 +1878,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1893,7 +1906,7 @@
       <c r="I6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1903,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>1213777900000</v>
+        <v>1419457100000</v>
       </c>
       <c r="N6" s="1">
         <v>1213777900000</v>
@@ -1969,7 +1982,7 @@
         <v>703848500000</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1997,7 +2010,7 @@
       <c r="I7" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2007,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>288602500000</v>
+        <v>246040400000</v>
       </c>
       <c r="N7" s="1">
         <v>288602500000</v>
@@ -2073,7 +2086,7 @@
         <v>3418700000</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2101,7 +2114,7 @@
       <c r="I8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>57</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2111,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>29533700000</v>
+        <v>32372400000</v>
       </c>
       <c r="N8" s="1">
         <v>29533700000</v>
@@ -2177,7 +2190,7 @@
         <v>23636700000</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2205,7 +2218,7 @@
       <c r="I9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2215,7 +2228,7 @@
         <v>0.8</v>
       </c>
       <c r="M9" s="1">
-        <v>20169200000</v>
+        <v>26503900000</v>
       </c>
       <c r="N9" s="1">
         <v>20169200000</v>
@@ -2281,7 +2294,7 @@
         <v>11383200000</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2309,7 +2322,7 @@
       <c r="I10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2319,7 +2332,7 @@
         <v>0.8</v>
       </c>
       <c r="M10" s="1">
-        <v>42651000000</v>
+        <v>46351000000</v>
       </c>
       <c r="N10" s="1">
         <v>42651000000</v>
@@ -2385,7 +2398,7 @@
         <v>29020200000</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2413,7 +2426,7 @@
       <c r="I11" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2423,7 +2436,7 @@
         <v>0.92</v>
       </c>
       <c r="M11" s="1">
-        <v>46103100000</v>
+        <v>50114500000</v>
       </c>
       <c r="N11" s="1">
         <v>46103100000</v>
@@ -2489,7 +2502,7 @@
         <v>34426600000</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2517,7 +2530,7 @@
       <c r="I12" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="6" t="s">
         <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -2527,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>2710700000</v>
+        <v>3373300000</v>
       </c>
       <c r="N12" s="1">
         <v>2710700000</v>
@@ -2593,7 +2606,7 @@
         <v>2599900000</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2621,7 +2634,7 @@
       <c r="I13" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -2631,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>7228900000</v>
+        <v>7398300000</v>
       </c>
       <c r="N13" s="1">
         <v>7228900000</v>
@@ -2697,7 +2710,7 @@
         <v>8065400000</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2725,7 +2738,7 @@
       <c r="I14" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2735,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>205300000</v>
+        <v>245400000</v>
       </c>
       <c r="N14" s="1">
         <v>205300000</v>
@@ -2798,7 +2811,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2826,7 +2839,7 @@
       <c r="I15" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="6" t="s">
         <v>72</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -2836,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>32950600000</v>
+        <v>35555700000</v>
       </c>
       <c r="N15" s="1">
         <v>32950600000</v>
@@ -2899,7 +2912,7 @@
         <v>18271100000</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2927,7 +2940,7 @@
       <c r="I16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="6" t="s">
         <v>74</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2937,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>26962300000</v>
+        <v>31876800000</v>
       </c>
       <c r="N16" s="1">
         <v>26962300000</v>
@@ -3000,7 +3013,7 @@
         <v>15348400000</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3028,7 +3041,7 @@
       <c r="I17" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="6" t="s">
         <v>76</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -3038,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>1996600000</v>
+        <v>2050800000.0000002</v>
       </c>
       <c r="N17" s="1">
         <v>1996600000</v>
@@ -3101,7 +3114,7 @@
         <v>638800000</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3129,7 +3142,7 @@
       <c r="I18" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -3139,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>6124600000</v>
+        <v>4330200000</v>
       </c>
       <c r="N18" s="1">
         <v>6124600000</v>
@@ -3202,7 +3215,7 @@
         <v>9871800000</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3230,7 +3243,7 @@
       <c r="I19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3240,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>12113200000</v>
+        <v>15400900000</v>
       </c>
       <c r="N19" s="1">
         <v>12113200000</v>
@@ -3306,7 +3319,7 @@
         <v>6638700000</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -3334,7 +3347,7 @@
       <c r="I20" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="6" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3344,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>72939500000</v>
+        <v>98341900000</v>
       </c>
       <c r="N20" s="1">
         <v>72939500000</v>
@@ -3410,7 +3423,7 @@
         <v>27875900000</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -3438,7 +3451,7 @@
       <c r="I21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>86</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3511,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -3539,7 +3552,7 @@
       <c r="I22" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="6" t="s">
         <v>88</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3550,7 +3563,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -3578,7 +3591,7 @@
       <c r="I23" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="6" t="s">
         <v>89</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -3589,7 +3602,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -3617,7 +3630,7 @@
       <c r="I24" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3627,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="1">
-        <v>59342400000</v>
+        <v>83927600000</v>
       </c>
       <c r="N24" s="1">
         <v>59342400000</v>
@@ -3693,7 +3706,7 @@
         <v>22704700000</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3721,7 +3734,7 @@
       <c r="I25" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="6" t="s">
         <v>92</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -3731,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>7458800000</v>
+        <v>7676600000</v>
       </c>
       <c r="N25" s="1">
         <v>7458800000</v>
@@ -3782,7 +3795,7 @@
         <v>2200000000</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -3810,7 +3823,7 @@
       <c r="I26" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="6" t="s">
         <v>94</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -3883,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -3911,7 +3924,7 @@
       <c r="I27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="6" t="s">
         <v>95</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -3921,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>156800000</v>
+        <v>333000000</v>
       </c>
       <c r="N27" s="1">
         <v>156800000</v>
@@ -3984,7 +3997,7 @@
         <v>-3464000000</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -4012,7 +4025,7 @@
       <c r="I28" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="6" t="s">
         <v>103</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -4083,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -4111,7 +4124,7 @@
       <c r="I29" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="6" t="s">
         <v>104</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -4121,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>411852500000</v>
+        <v>470845400000</v>
       </c>
       <c r="N29" s="1">
         <v>411852500000</v>
@@ -4187,7 +4200,7 @@
         <v>243482800000</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -4215,7 +4228,7 @@
       <c r="I30" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="6" t="s">
         <v>106</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -4291,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -4319,7 +4332,7 @@
       <c r="I31" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -4395,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -4423,7 +4436,7 @@
       <c r="I32" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="6" t="s">
         <v>108</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -4499,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -4527,7 +4540,7 @@
       <c r="I33" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -4591,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -4619,7 +4632,7 @@
       <c r="I34" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="6" t="s">
         <v>113</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -4629,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>32600000</v>
+        <v>34600000</v>
       </c>
       <c r="N34" s="1">
         <v>32600000</v>
@@ -4695,7 +4708,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -4723,7 +4736,7 @@
       <c r="I35" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="6" t="s">
         <v>115</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -4799,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -4827,7 +4840,7 @@
       <c r="I36" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="6" t="s">
         <v>117</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -4837,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <v>332700000</v>
+        <v>386700000</v>
       </c>
       <c r="N36" s="1">
         <v>332700000</v>
@@ -4903,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -4931,7 +4944,7 @@
       <c r="I37" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="6" t="s">
         <v>119</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -5007,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -5035,7 +5048,7 @@
       <c r="I38" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="6" t="s">
         <v>120</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -5045,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>2676700000</v>
+        <v>2914500000</v>
       </c>
       <c r="N38" s="1">
         <v>2676700000</v>
@@ -5111,7 +5124,7 @@
         <v>2040800000</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -5139,7 +5152,7 @@
       <c r="I39" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="6" t="s">
         <v>121</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -5149,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>6971200000</v>
+        <v>9373700000</v>
       </c>
       <c r="N39" s="1">
         <v>6971200000</v>
@@ -5215,7 +5228,7 @@
         <v>4808000000</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -5243,7 +5256,7 @@
       <c r="I40" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="6" t="s">
         <v>122</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -5253,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>12364300000</v>
+        <v>14298500000</v>
       </c>
       <c r="N40" s="1">
         <v>12364300000</v>
@@ -5319,7 +5332,7 @@
         <v>20241500000</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -5347,7 +5360,7 @@
       <c r="I41" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="6" t="s">
         <v>123</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -5357,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <v>47600000</v>
+        <v>62600000</v>
       </c>
       <c r="N41" s="1">
         <v>47600000</v>
@@ -5423,7 +5436,7 @@
         <v>65800000</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -5451,7 +5464,7 @@
       <c r="I42" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="6" t="s">
         <v>124</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -5527,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -5555,7 +5568,7 @@
       <c r="I43" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="6" t="s">
         <v>125</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -5628,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -5656,7 +5669,7 @@
       <c r="I44" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="6" t="s">
         <v>126</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -5666,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>17462800000</v>
+        <v>19039900000</v>
       </c>
       <c r="N44" s="1">
         <v>17462800000</v>
@@ -5717,7 +5730,7 @@
         <v>6745100000</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -5745,7 +5758,7 @@
       <c r="I45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="6" t="s">
         <v>127</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -5755,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -5773,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -5801,7 +5814,7 @@
       <c r="I46" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="6" t="s">
         <v>128</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -5821,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -5849,7 +5862,7 @@
       <c r="I47" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="6" t="s">
         <v>129</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -5859,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <v>400000</v>
+        <v>107600000</v>
       </c>
       <c r="N47" s="1">
         <v>400000</v>
@@ -5869,7 +5882,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="48" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -5897,7 +5910,7 @@
       <c r="I48" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="6" t="s">
         <v>130</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -5907,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -5917,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -5945,7 +5958,7 @@
       <c r="I49" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="6" t="s">
         <v>131</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -5955,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <v>51400000</v>
+        <v>113600000</v>
       </c>
       <c r="N49" s="1">
         <v>51400000</v>
@@ -6021,7 +6034,7 @@
         <v>97100000</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -6049,7 +6062,7 @@
       <c r="I50" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="6" t="s">
         <v>132</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -6059,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>4425100000</v>
+        <v>5903900000</v>
       </c>
       <c r="N50" s="1">
         <v>4425100000</v>
@@ -6125,7 +6138,7 @@
         <v>2475600000</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -6153,7 +6166,7 @@
       <c r="I51" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="6" t="s">
         <v>133</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -6163,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <v>155800000</v>
+        <v>301100000</v>
       </c>
       <c r="N51" s="1">
         <v>155800000</v>
@@ -6229,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -6257,7 +6270,7 @@
       <c r="I52" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="6" t="s">
         <v>134</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -6267,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <v>205400000</v>
+        <v>272500000</v>
       </c>
       <c r="N52" s="1">
         <v>205400000</v>
@@ -6333,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -6361,7 +6374,7 @@
       <c r="I53" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="6" t="s">
         <v>135</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -6371,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="1">
-        <v>331600000</v>
+        <v>650000000</v>
       </c>
       <c r="N53" s="1">
         <v>331600000</v>
@@ -6437,7 +6450,7 @@
         <v>198600000</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>4</v>
       </c>
@@ -6465,7 +6478,7 @@
       <c r="I54" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="6" t="s">
         <v>136</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -6475,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>0</v>
+        <v>22600000</v>
       </c>
       <c r="N54" s="1">
         <v>0</v>
@@ -6541,7 +6554,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -6569,7 +6582,7 @@
       <c r="I55" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="6" t="s">
         <v>137</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -6579,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="N55" s="1">
         <v>200000</v>
@@ -6645,7 +6658,7 @@
         <v>252100000</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>4</v>
       </c>
@@ -6673,7 +6686,7 @@
       <c r="I56" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="6" t="s">
         <v>138</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -6683,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <v>15500000</v>
+        <v>20800000</v>
       </c>
       <c r="N56" s="1">
         <v>15500000</v>
@@ -6749,7 +6762,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>4</v>
       </c>
@@ -6777,7 +6790,7 @@
       <c r="I57" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="6" t="s">
         <v>139</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -6787,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>40800000</v>
+        <v>39100000</v>
       </c>
       <c r="N57" s="1">
         <v>40800000</v>
@@ -6853,7 +6866,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>4</v>
       </c>
@@ -6881,7 +6894,7 @@
       <c r="I58" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="6" t="s">
         <v>140</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -6891,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>859800000</v>
+        <v>1193700000</v>
       </c>
       <c r="N58" s="1">
         <v>859800000</v>
@@ -6957,7 +6970,7 @@
         <v>1057700000</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>4</v>
       </c>
@@ -6985,7 +6998,7 @@
       <c r="I59" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="6" t="s">
         <v>141</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -7046,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>4</v>
       </c>
@@ -7074,7 +7087,7 @@
       <c r="I60" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="6" t="s">
         <v>142</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -7084,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <v>86500000</v>
+        <v>122300000</v>
       </c>
       <c r="N60" s="1">
         <v>86500000</v>
@@ -7150,7 +7163,7 @@
         <v>62300000</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -7178,7 +7191,7 @@
       <c r="I61" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="6" t="s">
         <v>143</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -7188,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="1">
-        <v>979200000</v>
+        <v>1303000000</v>
       </c>
       <c r="N61" s="1">
         <v>979200000</v>
@@ -7254,7 +7267,7 @@
         <v>957200000</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -7282,7 +7295,7 @@
       <c r="I62" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="6" t="s">
         <v>144</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -7358,7 +7371,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -7386,7 +7399,7 @@
       <c r="I63" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="6" t="s">
         <v>145</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -7396,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="1">
-        <v>3300000</v>
+        <v>500000</v>
       </c>
       <c r="N63" s="1">
         <v>3300000</v>
@@ -7462,7 +7475,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>4</v>
       </c>
@@ -7490,7 +7503,7 @@
       <c r="I64" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="6" t="s">
         <v>146</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -7500,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <v>24900000</v>
+        <v>57900000</v>
       </c>
       <c r="N64" s="1">
         <v>24900000</v>
@@ -7566,7 +7579,7 @@
         <v>57800000</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -7594,7 +7607,7 @@
       <c r="I65" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="6" t="s">
         <v>147</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -7670,7 +7683,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>4</v>
       </c>
@@ -7698,7 +7711,7 @@
       <c r="I66" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="6" t="s">
         <v>148</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -7753,7 +7766,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>4</v>
       </c>
@@ -7781,7 +7794,7 @@
       <c r="I67" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="6" t="s">
         <v>149</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -7791,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <v>45300000</v>
+        <v>51100000</v>
       </c>
       <c r="N67" s="1">
         <v>45300000</v>
@@ -7842,7 +7855,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>4</v>
       </c>
@@ -7870,7 +7883,7 @@
       <c r="I68" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="6" t="s">
         <v>150</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -7928,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>4</v>
       </c>
@@ -7956,7 +7969,7 @@
       <c r="I69" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="6" t="s">
         <v>151</v>
       </c>
       <c r="K69" s="1" t="s">
@@ -7966,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <v>100000</v>
+        <v>28200000</v>
       </c>
       <c r="N69" s="1">
         <v>100000</v>
@@ -8014,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -8042,7 +8055,7 @@
       <c r="I70" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="6" t="s">
         <v>152</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -8088,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -8116,7 +8129,7 @@
       <c r="I71" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -8126,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <v>42500000</v>
+        <v>844500000</v>
       </c>
       <c r="N71" s="1">
         <v>42500000</v>
@@ -8153,7 +8166,7 @@
         <v>56800000</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>4</v>
       </c>
@@ -8181,14 +8194,14 @@
       <c r="I72" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="6" t="s">
         <v>154</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>118</v>
       </c>
       <c r="M72" s="1">
-        <v>70300000</v>
+        <v>83800000</v>
       </c>
       <c r="N72" s="1">
         <v>70300000</v>
@@ -8209,7 +8222,7 @@
         <v>76200000</v>
       </c>
     </row>
-    <row r="73" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -8237,7 +8250,7 @@
       <c r="I73" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="6" t="s">
         <v>155</v>
       </c>
       <c r="K73" s="1" t="s">
@@ -8257,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>4</v>
       </c>
@@ -8285,7 +8298,7 @@
       <c r="I74" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="6" t="s">
         <v>156</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -8352,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -8380,7 +8393,7 @@
       <c r="I75" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="6" t="s">
         <v>157</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -8447,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -8475,7 +8488,7 @@
       <c r="I76" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="6" t="s">
         <v>158</v>
       </c>
       <c r="K76" s="1" t="s">
@@ -8542,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>5</v>
       </c>
@@ -8570,7 +8583,7 @@
       <c r="I77" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="6" t="s">
         <v>160</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -8580,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="1">
-        <v>9800000</v>
+        <v>10800000</v>
       </c>
       <c r="N77" s="1">
         <v>9800000</v>
@@ -8646,7 +8659,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -8674,7 +8687,7 @@
       <c r="I78" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -8750,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>5</v>
       </c>
@@ -8778,7 +8791,7 @@
       <c r="I79" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="6" t="s">
         <v>163</v>
       </c>
       <c r="K79" s="1" t="s">
@@ -8788,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="N79" s="1">
         <v>300000</v>
@@ -8854,7 +8867,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -8882,7 +8895,7 @@
       <c r="I80" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="6" t="s">
         <v>164</v>
       </c>
       <c r="K80" s="1" t="s">
@@ -8892,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="1">
-        <v>1940700000</v>
+        <v>2097199999.9999998</v>
       </c>
       <c r="N80" s="1">
         <v>1940700000</v>
@@ -8958,7 +8971,7 @@
         <v>1289900000</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>5</v>
       </c>
@@ -8986,7 +8999,7 @@
       <c r="I81" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="6" t="s">
         <v>165</v>
       </c>
       <c r="K81" s="1" t="s">
@@ -8996,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <v>80400000</v>
+        <v>86900000</v>
       </c>
       <c r="N81" s="1">
         <v>80400000</v>
@@ -9062,7 +9075,7 @@
         <v>85900000</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>5</v>
       </c>
@@ -9090,7 +9103,7 @@
       <c r="I82" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -9100,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <v>5347500000</v>
+        <v>3806200000</v>
       </c>
       <c r="N82" s="1">
         <v>5347500000</v>
@@ -9166,7 +9179,7 @@
         <v>4238600000</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -9194,7 +9207,7 @@
       <c r="I83" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="6" t="s">
         <v>167</v>
       </c>
       <c r="K83" s="1" t="s">
@@ -9270,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>5</v>
       </c>
@@ -9298,7 +9311,7 @@
       <c r="I84" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="6" t="s">
         <v>168</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -9308,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <v>540000000</v>
+        <v>542000000</v>
       </c>
       <c r="N84" s="1">
         <v>540000000</v>
@@ -9374,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>5</v>
       </c>
@@ -9402,7 +9415,7 @@
       <c r="I85" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="6" t="s">
         <v>169</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -9469,7 +9482,7 @@
         <v>441500000</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>5</v>
       </c>
@@ -9497,7 +9510,7 @@
       <c r="I86" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="6" t="s">
         <v>170</v>
       </c>
       <c r="K86" s="1" t="s">
@@ -9573,7 +9586,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>5</v>
       </c>
@@ -9601,7 +9614,7 @@
       <c r="I87" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="6" t="s">
         <v>171</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -9677,7 +9690,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>5</v>
       </c>
@@ -9705,7 +9718,7 @@
       <c r="I88" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="6" t="s">
         <v>172</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -9714,7 +9727,7 @@
       <c r="L88" s="1">
         <v>0</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="1">
         <v>0</v>
       </c>
       <c r="N88" s="2">
@@ -9772,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>6</v>
       </c>
@@ -9800,7 +9813,7 @@
       <c r="I89" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="6" t="s">
         <v>174</v>
       </c>
       <c r="K89" s="1" t="s">
@@ -9810,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <v>2438200000</v>
+        <v>2687900000</v>
       </c>
       <c r="N89" s="1">
         <v>2438200000</v>
@@ -9876,7 +9889,7 @@
         <v>1620600000</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>6</v>
       </c>
@@ -9904,7 +9917,7 @@
       <c r="I90" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="6" t="s">
         <v>176</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -9914,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="1">
-        <v>1321000000</v>
+        <v>1427500000</v>
       </c>
       <c r="N90" s="1">
         <v>1321000000</v>
@@ -9980,7 +9993,7 @@
         <v>1873000000</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>6</v>
       </c>
@@ -10008,7 +10021,7 @@
       <c r="I91" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="6" t="s">
         <v>177</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -10084,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -10112,7 +10125,7 @@
       <c r="I92" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="6" t="s">
         <v>178</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -10188,7 +10201,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>6</v>
       </c>
@@ -10216,7 +10229,7 @@
       <c r="I93" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="6" t="s">
         <v>179</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -10226,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="1">
-        <v>185200000</v>
+        <v>204200000</v>
       </c>
       <c r="N93" s="1">
         <v>185200000</v>
@@ -10292,7 +10305,7 @@
         <v>123100000</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>6</v>
       </c>
@@ -10320,7 +10333,7 @@
       <c r="I94" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="6" t="s">
         <v>180</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -10330,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="1">
-        <v>101800000</v>
+        <v>110900000</v>
       </c>
       <c r="N94" s="1">
         <v>101800000</v>
@@ -10396,7 +10409,7 @@
         <v>323600000</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>6</v>
       </c>
@@ -10424,7 +10437,7 @@
       <c r="I95" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="6" t="s">
         <v>181</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -10500,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>6</v>
       </c>
@@ -10528,7 +10541,7 @@
       <c r="I96" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="6" t="s">
         <v>182</v>
       </c>
       <c r="K96" s="1" t="s">
@@ -10604,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>6</v>
       </c>
@@ -10632,7 +10645,7 @@
       <c r="I97" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="6" t="s">
         <v>183</v>
       </c>
       <c r="K97" s="1" t="s">
@@ -10708,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>6</v>
       </c>
@@ -10736,7 +10749,7 @@
       <c r="I98" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="6" t="s">
         <v>184</v>
       </c>
       <c r="K98" s="1" t="s">
@@ -10812,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:34" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>6</v>
       </c>
@@ -10840,7 +10853,7 @@
       <c r="I99" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="6" t="s">
         <v>185</v>
       </c>
       <c r="K99" s="1" t="s">
@@ -10916,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>6</v>
       </c>
@@ -10944,7 +10957,7 @@
       <c r="I100" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="6" t="s">
         <v>186</v>
       </c>
       <c r="K100" s="1" t="s">
@@ -11020,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>6</v>
       </c>
@@ -11048,7 +11061,7 @@
       <c r="I101" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="6" t="s">
         <v>187</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -11058,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="1">
-        <v>623300000</v>
+        <v>1053500000</v>
       </c>
       <c r="N101" s="1">
         <v>623300000</v>
@@ -11124,7 +11137,7 @@
         <v>775300000</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>6</v>
       </c>
@@ -11152,7 +11165,7 @@
       <c r="I102" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="6" t="s">
         <v>188</v>
       </c>
       <c r="K102" s="1" t="s">
@@ -11162,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="1">
-        <v>659100000</v>
+        <v>1103500000</v>
       </c>
       <c r="N102" s="1">
         <v>659100000</v>
@@ -11228,7 +11241,7 @@
         <v>856600000</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -11256,7 +11269,7 @@
       <c r="I103" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="6" t="s">
         <v>189</v>
       </c>
       <c r="K103" s="1" t="s">
@@ -11332,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>6</v>
       </c>
@@ -11360,7 +11373,7 @@
       <c r="I104" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="6" t="s">
         <v>190</v>
       </c>
       <c r="K104" s="1" t="s">
@@ -11370,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="1">
-        <v>8400000</v>
+        <v>9300000</v>
       </c>
       <c r="N104" s="1">
         <v>8400000</v>
@@ -11436,7 +11449,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -11464,7 +11477,7 @@
       <c r="I105" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="6" t="s">
         <v>191</v>
       </c>
       <c r="K105" s="1" t="s">
@@ -11540,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>6</v>
       </c>
@@ -11568,7 +11581,7 @@
       <c r="I106" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="6" t="s">
         <v>192</v>
       </c>
       <c r="K106" s="1" t="s">
@@ -11644,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -11672,7 +11685,7 @@
       <c r="I107" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="6" t="s">
         <v>193</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -11748,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -11776,7 +11789,7 @@
       <c r="I108" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J108" s="6" t="s">
         <v>194</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -11852,7 +11865,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -11880,7 +11893,7 @@
       <c r="I109" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="J109" s="6" t="s">
         <v>195</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -11890,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="1">
-        <v>158500000</v>
+        <v>174700000</v>
       </c>
       <c r="N109" s="1">
         <v>158500000</v>
@@ -11956,7 +11969,7 @@
         <v>105400000</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>6</v>
       </c>
@@ -11984,7 +11997,7 @@
       <c r="I110" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="6" t="s">
         <v>196</v>
       </c>
       <c r="K110" s="1" t="s">
@@ -12060,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>6</v>
       </c>
@@ -12088,7 +12101,7 @@
       <c r="I111" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="6" t="s">
         <v>197</v>
       </c>
       <c r="K111" s="1" t="s">
@@ -12164,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>6</v>
       </c>
@@ -12192,7 +12205,7 @@
       <c r="I112" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="6" t="s">
         <v>198</v>
       </c>
       <c r="K112" s="1" t="s">
@@ -12268,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>6</v>
       </c>
@@ -12296,7 +12309,7 @@
       <c r="I113" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="6" t="s">
         <v>199</v>
       </c>
       <c r="K113" s="1" t="s">
@@ -12372,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>6</v>
       </c>
@@ -12400,7 +12413,7 @@
       <c r="I114" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="J114" s="6" t="s">
         <v>200</v>
       </c>
       <c r="K114" s="1" t="s">
@@ -12476,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>6</v>
       </c>
@@ -12504,7 +12517,7 @@
       <c r="I115" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="6" t="s">
         <v>201</v>
       </c>
       <c r="K115" s="1" t="s">
@@ -12580,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>6</v>
       </c>
@@ -12608,7 +12621,7 @@
       <c r="I116" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="6" t="s">
         <v>202</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -12684,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>6</v>
       </c>
@@ -12712,7 +12725,7 @@
       <c r="I117" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="6" t="s">
         <v>203</v>
       </c>
       <c r="K117" s="1" t="s">
@@ -12788,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>6</v>
       </c>
@@ -12816,7 +12829,7 @@
       <c r="I118" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="J118" s="6" t="s">
         <v>204</v>
       </c>
       <c r="K118" s="1" t="s">
@@ -12826,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="1">
-        <v>179329100000</v>
+        <v>166782000000</v>
       </c>
       <c r="N118" s="1">
         <v>179329100000</v>
@@ -12892,7 +12905,7 @@
         <v>116315900000</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>6</v>
       </c>
@@ -12920,7 +12933,7 @@
       <c r="I119" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J119" s="6" t="s">
         <v>205</v>
       </c>
       <c r="K119" s="1" t="s">
@@ -12981,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>6</v>
       </c>
@@ -13009,7 +13022,7 @@
       <c r="I120" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="6" t="s">
         <v>206</v>
       </c>
       <c r="K120" s="1" t="s">
@@ -13070,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>6</v>
       </c>
@@ -13098,7 +13111,7 @@
       <c r="I121" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="6" t="s">
         <v>207</v>
       </c>
       <c r="K121" s="1" t="s">
@@ -13159,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>6</v>
       </c>
@@ -13187,7 +13200,7 @@
       <c r="I122" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J122" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K122" s="1" t="s">
@@ -13197,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="1">
-        <v>30700000</v>
+        <v>0</v>
       </c>
       <c r="N122" s="1">
         <v>30700000</v>
@@ -13263,7 +13276,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>6</v>
       </c>
@@ -13291,7 +13304,7 @@
       <c r="I123" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J123" s="6" t="s">
         <v>209</v>
       </c>
       <c r="K123" s="1" t="s">
@@ -13301,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="1">
-        <v>8700000</v>
+        <v>0</v>
       </c>
       <c r="N123" s="1">
         <v>8700000</v>
@@ -13367,7 +13380,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>6</v>
       </c>
@@ -13395,7 +13408,7 @@
       <c r="I124" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="6" t="s">
         <v>210</v>
       </c>
       <c r="K124" s="1" t="s">
@@ -13471,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>6</v>
       </c>
@@ -13499,7 +13512,7 @@
       <c r="I125" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="6" t="s">
         <v>211</v>
       </c>
       <c r="K125" s="1" t="s">
@@ -13575,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>6</v>
       </c>
@@ -13603,7 +13616,7 @@
       <c r="I126" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="J126" s="6" t="s">
         <v>212</v>
       </c>
       <c r="K126" s="1" t="s">
@@ -13679,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>6</v>
       </c>
@@ -13707,7 +13720,7 @@
       <c r="I127" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" s="6" t="s">
         <v>213</v>
       </c>
       <c r="K127" s="1" t="s">
@@ -13768,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:34" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>6</v>
       </c>
@@ -13796,7 +13809,7 @@
       <c r="I128" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" s="6" t="s">
         <v>214</v>
       </c>
       <c r="K128" s="1" t="s">
@@ -13857,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>7</v>
       </c>
@@ -13885,7 +13898,7 @@
       <c r="I129" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="J129" s="6" t="s">
         <v>217</v>
       </c>
       <c r="K129" s="1" t="s">
@@ -13895,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="1">
-        <v>31433200000</v>
+        <v>28526000000</v>
       </c>
       <c r="N129" s="1">
         <v>31433200000</v>
@@ -13961,7 +13974,7 @@
         <v>30129600000</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>7</v>
       </c>
@@ -13989,7 +14002,7 @@
       <c r="I130" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="J130" s="6" t="s">
         <v>220</v>
       </c>
       <c r="K130" s="1" t="s">
@@ -13999,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="1">
-        <v>51221100000</v>
+        <v>49969900000</v>
       </c>
       <c r="N130" s="1">
         <v>51221100000</v>
@@ -14065,7 +14078,7 @@
         <v>47934600000</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>7</v>
       </c>
@@ -14093,7 +14106,7 @@
       <c r="I131" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" s="6" t="s">
         <v>225</v>
       </c>
       <c r="K131" s="1" t="s">
@@ -14103,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="1">
-        <v>716087200000</v>
+        <v>826492800000</v>
       </c>
       <c r="N131" s="1">
         <v>716087200000</v>
@@ -14169,7 +14182,7 @@
         <v>438257300000</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>7</v>
       </c>
@@ -14197,7 +14210,7 @@
       <c r="I132" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="6" t="s">
         <v>228</v>
       </c>
       <c r="K132" s="1" t="s">
@@ -14207,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="1">
-        <v>406582800000</v>
+        <v>398988800000</v>
       </c>
       <c r="N132" s="1">
         <v>406582800000</v>
@@ -14273,7 +14286,7 @@
         <v>356816700000</v>
       </c>
     </row>
-    <row r="133" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>7</v>
       </c>
@@ -14301,7 +14314,7 @@
       <c r="I133" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" s="6" t="s">
         <v>231</v>
       </c>
       <c r="K133" s="1" t="s">
@@ -14351,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:34" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>7</v>
       </c>
@@ -14379,7 +14392,7 @@
       <c r="I134" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="6" t="s">
         <v>232</v>
       </c>
       <c r="K134" s="1" t="s">
@@ -14426,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>8</v>
       </c>
@@ -14454,7 +14467,7 @@
       <c r="I135" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="J135" s="6" t="s">
         <v>234</v>
       </c>
       <c r="K135" s="1" t="s">
@@ -14468,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -14496,7 +14509,7 @@
       <c r="I136" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J136" s="6" t="s">
         <v>235</v>
       </c>
       <c r="K136" s="1" t="s">
@@ -14510,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>8</v>
       </c>
@@ -14538,7 +14551,7 @@
       <c r="I137" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" s="6" t="s">
         <v>236</v>
       </c>
       <c r="K137" s="1" t="s">
@@ -14552,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -14580,7 +14593,7 @@
       <c r="I138" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" s="6" t="s">
         <v>237</v>
       </c>
       <c r="K138" s="1" t="s">
@@ -14594,7 +14607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>8</v>
       </c>
@@ -14622,7 +14635,7 @@
       <c r="I139" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" s="6" t="s">
         <v>238</v>
       </c>
       <c r="K139" s="1" t="s">
@@ -14636,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>9</v>
       </c>
@@ -14664,7 +14677,7 @@
       <c r="I140" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" s="6" t="s">
         <v>242</v>
       </c>
       <c r="K140" s="1" t="s">
@@ -14674,7 +14687,7 @@
         <v>0.80289999999999995</v>
       </c>
       <c r="M140" s="1">
-        <v>370928100000</v>
+        <v>487742600000</v>
       </c>
       <c r="N140" s="1">
         <v>370928100000</v>
@@ -14725,7 +14738,7 @@
         <v>749466800000</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>9</v>
       </c>
@@ -14753,7 +14766,7 @@
       <c r="I141" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" s="6" t="s">
         <v>244</v>
       </c>
       <c r="L141" s="1">
@@ -14811,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>9</v>
       </c>
@@ -14839,7 +14852,7 @@
       <c r="I142" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J142" s="6" t="s">
         <v>245</v>
       </c>
       <c r="K142" s="1" t="s">
@@ -14848,6 +14861,9 @@
       <c r="L142" s="1">
         <v>0</v>
       </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
       <c r="O142" s="3"/>
       <c r="Q142" s="1">
         <v>0</v>
@@ -14883,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>9</v>
       </c>
@@ -14911,7 +14927,7 @@
       <c r="I143" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" s="6" t="s">
         <v>246</v>
       </c>
       <c r="K143" s="1" t="s">
@@ -14920,6 +14936,9 @@
       <c r="L143" s="1">
         <v>0</v>
       </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
       <c r="O143" s="3">
         <v>0</v>
       </c>
@@ -14963,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>9</v>
       </c>
@@ -14991,7 +15010,7 @@
       <c r="I144" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" s="6" t="s">
         <v>247</v>
       </c>
       <c r="K144" s="1" t="s">
@@ -15032,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>9</v>
       </c>
@@ -15060,7 +15079,7 @@
       <c r="I145" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" s="6" t="s">
         <v>248</v>
       </c>
       <c r="K145" s="1" t="s">
@@ -15069,6 +15088,9 @@
       <c r="L145" s="1">
         <v>0</v>
       </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
       <c r="O145" s="3"/>
       <c r="Q145" s="1">
         <v>0</v>
@@ -15104,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>9</v>
       </c>
@@ -15132,7 +15154,7 @@
       <c r="I146" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J146" s="6" t="s">
         <v>249</v>
       </c>
       <c r="K146" s="1" t="s">
@@ -15173,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>10</v>
       </c>
@@ -15201,7 +15223,7 @@
       <c r="I147" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="J147" s="6" t="s">
         <v>253</v>
       </c>
       <c r="K147" s="1" t="s">
@@ -15211,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="1">
-        <v>845807300000</v>
+        <v>1168313900000</v>
       </c>
       <c r="N147" s="1">
         <v>845807300000</v>
@@ -15277,7 +15299,7 @@
         <v>571916300000</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>10</v>
       </c>
@@ -15305,7 +15327,7 @@
       <c r="I148" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" s="6" t="s">
         <v>256</v>
       </c>
       <c r="K148" s="1" t="s">
@@ -15315,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="1">
-        <v>40044700000</v>
+        <v>42033100000</v>
       </c>
       <c r="N148" s="1">
         <v>40044700000</v>
@@ -15381,7 +15403,7 @@
         <v>31085000000</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>10</v>
       </c>
@@ -15409,7 +15431,7 @@
       <c r="I149" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="J149" s="6" t="s">
         <v>257</v>
       </c>
       <c r="K149" s="1" t="s">
@@ -15485,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>10</v>
       </c>
@@ -15513,7 +15535,7 @@
       <c r="I150" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J150" s="6" t="s">
         <v>259</v>
       </c>
       <c r="K150" s="1" t="s">
@@ -15589,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>10</v>
       </c>
@@ -15617,7 +15639,7 @@
       <c r="I151" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="J151" s="6" t="s">
         <v>262</v>
       </c>
       <c r="K151" s="1" t="s">
@@ -15627,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="1">
-        <v>-32986800000</v>
+        <v>-34173199999.999996</v>
       </c>
       <c r="N151" s="1">
         <v>-32986800000</v>
@@ -15693,7 +15715,7 @@
         <v>-58857500000</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>10</v>
       </c>
@@ -15721,7 +15743,7 @@
       <c r="I152" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" s="6" t="s">
         <v>264</v>
       </c>
       <c r="K152" s="1" t="s">
@@ -15731,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="M152" s="1">
-        <v>62750000000</v>
+        <v>0</v>
       </c>
       <c r="N152" s="1">
         <v>62750000000</v>
@@ -15782,7 +15804,7 @@
         <v>128451200000</v>
       </c>
     </row>
-    <row r="153" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1</v>
       </c>
@@ -15810,7 +15832,7 @@
       <c r="I153" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" s="6" t="s">
         <v>266</v>
       </c>
       <c r="K153" s="1" t="s">
@@ -15819,7 +15841,6 @@
       <c r="L153" s="1">
         <v>1</v>
       </c>
-      <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="W153" s="1">
         <v>3890400000</v>
@@ -15836,7 +15857,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -15864,7 +15885,7 @@
       <c r="I154" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="J154" s="6" t="s">
         <v>268</v>
       </c>
       <c r="K154" s="1" t="s">
@@ -15873,8 +15894,8 @@
       <c r="L154" s="1">
         <v>0</v>
       </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
       <c r="V154" s="1">
         <v>200000</v>
       </c>
@@ -15893,7 +15914,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1</v>
       </c>
@@ -15921,7 +15942,7 @@
       <c r="I155" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="J155" s="6" t="s">
         <v>269</v>
       </c>
       <c r="K155" s="1" t="s">
@@ -15930,7 +15951,7 @@
       <c r="L155" s="1">
         <v>1</v>
       </c>
-      <c r="M155" s="2"/>
+      <c r="M155" s="8"/>
       <c r="N155" s="2"/>
       <c r="W155" s="1">
         <v>44638400000</v>
@@ -15947,7 +15968,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>4</v>
       </c>
@@ -15975,7 +15996,7 @@
       <c r="I156" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="J156" s="6" t="s">
         <v>271</v>
       </c>
       <c r="K156" s="1" t="s">
@@ -15984,7 +16005,7 @@
       <c r="L156" s="1">
         <v>1</v>
       </c>
-      <c r="M156" s="2"/>
+      <c r="M156" s="8"/>
       <c r="N156" s="2"/>
       <c r="V156" s="1">
         <v>659341700000</v>
@@ -16004,7 +16025,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -16032,7 +16053,7 @@
       <c r="I157" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="J157" s="6" t="s">
         <v>273</v>
       </c>
       <c r="K157" s="1" t="s">
@@ -16041,7 +16062,7 @@
       <c r="L157" s="1">
         <v>0</v>
       </c>
-      <c r="M157" s="2"/>
+      <c r="M157" s="8"/>
       <c r="N157" s="2"/>
       <c r="Y157" s="1">
         <v>17182800000</v>
@@ -16052,7 +16073,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:34" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>4</v>
       </c>
@@ -16080,7 +16101,7 @@
       <c r="I158" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="J158" s="6" t="s">
         <v>275</v>
       </c>
       <c r="K158" s="1" t="s">
@@ -16089,7 +16110,7 @@
       <c r="L158" s="1">
         <v>1</v>
       </c>
-      <c r="M158" s="2"/>
+      <c r="M158" s="8"/>
       <c r="N158" s="2"/>
       <c r="V158" s="1">
         <v>4539100000</v>
@@ -16109,7 +16130,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:34" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>4</v>
       </c>
@@ -16137,7 +16158,7 @@
       <c r="I159" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J159" s="6" t="s">
         <v>277</v>
       </c>
       <c r="K159" s="1" t="s">
@@ -16146,7 +16167,7 @@
       <c r="L159" s="1">
         <v>0</v>
       </c>
-      <c r="M159" s="2"/>
+      <c r="M159" s="8"/>
       <c r="N159" s="2"/>
       <c r="V159" s="1">
         <v>345100000</v>
@@ -16163,7 +16184,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>4</v>
       </c>
@@ -16191,7 +16212,7 @@
       <c r="I160" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J160" s="6" t="s">
         <v>279</v>
       </c>
       <c r="K160" s="1" t="s">
@@ -16200,7 +16221,7 @@
       <c r="L160" s="1">
         <v>1</v>
       </c>
-      <c r="M160" s="2"/>
+      <c r="M160" s="8"/>
       <c r="N160" s="2"/>
       <c r="V160" s="1">
         <v>6745900000</v>
@@ -16220,7 +16241,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:28" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>4</v>
       </c>
@@ -16248,7 +16269,7 @@
       <c r="I161" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J161" s="6" t="s">
         <v>281</v>
       </c>
       <c r="K161" s="1" t="s">
@@ -16257,7 +16278,7 @@
       <c r="L161" s="1">
         <v>0</v>
       </c>
-      <c r="M161" s="2"/>
+      <c r="M161" s="8"/>
       <c r="N161" s="2"/>
       <c r="V161" s="1">
         <v>3003800000</v>
@@ -16277,7 +16298,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>4</v>
       </c>
@@ -16305,7 +16326,7 @@
       <c r="I162" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J162" s="1" t="s">
+      <c r="J162" s="6" t="s">
         <v>283</v>
       </c>
       <c r="K162" s="1" t="s">
@@ -16314,7 +16335,7 @@
       <c r="L162" s="1">
         <v>1</v>
       </c>
-      <c r="M162" s="2"/>
+      <c r="M162" s="8"/>
       <c r="N162" s="2"/>
       <c r="Y162" s="1">
         <v>2672700000</v>
@@ -16325,7 +16346,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:28" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>4</v>
       </c>
@@ -16353,7 +16374,7 @@
       <c r="I163" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J163" s="6" t="s">
         <v>285</v>
       </c>
       <c r="K163" s="1" t="s">
@@ -16362,7 +16383,7 @@
       <c r="L163" s="1">
         <v>0</v>
       </c>
-      <c r="M163" s="2"/>
+      <c r="M163" s="8"/>
       <c r="N163" s="2"/>
       <c r="V163" s="1">
         <v>35100000</v>
@@ -16382,7 +16403,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>4</v>
       </c>
@@ -16410,7 +16431,7 @@
       <c r="I164" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J164" s="1" t="s">
+      <c r="J164" s="6" t="s">
         <v>287</v>
       </c>
       <c r="K164" s="1" t="s">
@@ -16419,7 +16440,7 @@
       <c r="L164" s="1">
         <v>1</v>
       </c>
-      <c r="M164" s="2"/>
+      <c r="M164" s="8"/>
       <c r="N164" s="2"/>
       <c r="V164" s="1">
         <v>2936500000</v>
@@ -16439,7 +16460,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:28" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>4</v>
       </c>
@@ -16467,7 +16488,7 @@
       <c r="I165" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J165" s="6" t="s">
         <v>289</v>
       </c>
       <c r="K165" s="1" t="s">
@@ -16476,7 +16497,7 @@
       <c r="L165" s="1">
         <v>0</v>
       </c>
-      <c r="M165" s="2"/>
+      <c r="M165" s="8"/>
       <c r="N165" s="2"/>
       <c r="V165" s="1">
         <v>7610900000</v>
@@ -16496,7 +16517,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>1</v>
       </c>
@@ -16524,7 +16545,7 @@
       <c r="I166" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="J166" s="6" t="s">
         <v>291</v>
       </c>
       <c r="K166" s="1" t="s">
@@ -16533,7 +16554,7 @@
       <c r="L166" s="1">
         <v>1</v>
       </c>
-      <c r="M166" s="2"/>
+      <c r="M166" s="8"/>
       <c r="N166" s="2"/>
       <c r="V166" s="1">
         <v>1501200000</v>
@@ -16553,7 +16574,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:28" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>4</v>
       </c>
@@ -16581,7 +16602,7 @@
       <c r="I167" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J167" s="6" t="s">
         <v>293</v>
       </c>
       <c r="K167" s="1" t="s">
@@ -16590,7 +16611,7 @@
       <c r="L167" s="1">
         <v>0</v>
       </c>
-      <c r="M167" s="2"/>
+      <c r="M167" s="8"/>
       <c r="N167" s="2"/>
       <c r="V167" s="1">
         <v>100825200000</v>
@@ -16610,7 +16631,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:28" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -16638,7 +16659,7 @@
       <c r="I168" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J168" s="6" t="s">
         <v>295</v>
       </c>
       <c r="K168" s="1" t="s">
@@ -16647,9 +16668,10 @@
       <c r="L168" s="1">
         <v>1</v>
       </c>
+      <c r="M168" s="8"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:28" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -16677,7 +16699,7 @@
       <c r="I169" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J169" s="1" t="s">
+      <c r="J169" s="6" t="s">
         <v>296</v>
       </c>
       <c r="K169" s="1" t="s">
@@ -16686,9 +16708,10 @@
       <c r="L169" s="1">
         <v>1</v>
       </c>
+      <c r="M169" s="8"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -16716,7 +16739,7 @@
       <c r="I170" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="J170" s="6" t="s">
         <v>298</v>
       </c>
       <c r="K170" s="1" t="s">
@@ -16725,9 +16748,10 @@
       <c r="L170" s="1">
         <v>1</v>
       </c>
+      <c r="M170" s="8"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -16755,7 +16779,7 @@
       <c r="I171" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="J171" s="6" t="s">
         <v>300</v>
       </c>
       <c r="K171" s="1" t="s">
@@ -16764,9 +16788,10 @@
       <c r="L171" s="1">
         <v>1</v>
       </c>
+      <c r="M171" s="8"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>4</v>
       </c>
@@ -16794,7 +16819,7 @@
       <c r="I172" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="J172" s="6" t="s">
         <v>302</v>
       </c>
       <c r="K172" s="1" t="s">
@@ -16803,6 +16828,7 @@
       <c r="L172" s="1">
         <v>0</v>
       </c>
+      <c r="M172" s="8"/>
       <c r="AB172" s="2"/>
     </row>
   </sheetData>
